--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -31,48 +31,48 @@
     <t>long_description</t>
   </si>
   <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>point_of_contact</t>
+  </si>
+  <si>
+    <t>phone_1</t>
+  </si>
+  <si>
+    <t>phone_2</t>
+  </si>
+  <si>
+    <t>phone_3</t>
+  </si>
+  <si>
+    <t>email_1</t>
+  </si>
+  <si>
+    <t>email_2</t>
+  </si>
+  <si>
+    <t>email_3</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>extra_info</t>
+  </si>
+  <si>
+    <t>spanish_short_description</t>
+  </si>
+  <si>
+    <t>spanish_long_description</t>
+  </si>
+  <si>
     <t>categories</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>point_of_contact</t>
-  </si>
-  <si>
-    <t>phone_1</t>
-  </si>
-  <si>
-    <t>phone_2</t>
-  </si>
-  <si>
-    <t>phone_3</t>
-  </si>
-  <si>
-    <t>email_1</t>
-  </si>
-  <si>
-    <t>email_2</t>
-  </si>
-  <si>
-    <t>email_3</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>extra_info</t>
-  </si>
-  <si>
-    <t>spanish_short_description</t>
-  </si>
-  <si>
-    <t>spanish_long_description</t>
-  </si>
-  <si>
     <t>lat</t>
   </si>
   <si>
@@ -85,90 +85,90 @@
     <t>Mental Health and Foster Car Services.</t>
   </si>
   <si>
+    <t>255 N San Gabriel Blvd, Pasadena, CA 91107</t>
+  </si>
+  <si>
+    <t>(626) 696-1270</t>
+  </si>
+  <si>
     <t>mental health,foster care</t>
   </si>
   <si>
-    <t>255 N San Gabriel Blvd, Pasadena, CA 91107</t>
-  </si>
-  <si>
-    <t>(626) 696-1270</t>
-  </si>
-  <si>
     <t>Casa de las Amigas</t>
   </si>
   <si>
     <t>A 24-hour alcohol and drug residential treatment center for women.</t>
   </si>
   <si>
+    <t>160 N El Molino Ave, Pasadena, CA 91101</t>
+  </si>
+  <si>
+    <t>Flora Esquivel</t>
+  </si>
+  <si>
+    <t>(626) 792-2770</t>
+  </si>
+  <si>
     <t>alcohol treatment,substance abuse recovery</t>
   </si>
   <si>
-    <t>160 N El Molino Ave, Pasadena, CA 91101</t>
-  </si>
-  <si>
-    <t>Flora Esquivel</t>
-  </si>
-  <si>
-    <t>(626) 792-2770</t>
-  </si>
-  <si>
     <t>Elizabeth House</t>
   </si>
   <si>
     <t>Shelter and support services for pregnant, homeless women and children.</t>
   </si>
   <si>
+    <t>760 Santa Barbara St, Pasadena, CA 91101</t>
+  </si>
+  <si>
+    <t>Terry Bright</t>
+  </si>
+  <si>
+    <t>(626) 577-4434</t>
+  </si>
+  <si>
+    <t>contact@elizabethhouse.net</t>
+  </si>
+  <si>
     <t>women shelters,family shelters</t>
   </si>
   <si>
-    <t>760 Santa Barbara St, Pasadena, CA 91101</t>
-  </si>
-  <si>
-    <t>Terry Bright</t>
-  </si>
-  <si>
-    <t>(626) 577-4434</t>
-  </si>
-  <si>
-    <t>contact@elizabethhouse.net</t>
-  </si>
-  <si>
     <t>Food For Faith Pasadena Church</t>
   </si>
   <si>
     <t>Community meals program.</t>
   </si>
   <si>
+    <t>404 E Washington Blvd, Pasadena, CA 91104</t>
+  </si>
+  <si>
+    <t>Maria Edwards</t>
+  </si>
+  <si>
+    <t>(626) 794-2951</t>
+  </si>
+  <si>
     <t>free food</t>
   </si>
   <si>
-    <t>404 E Washington Blvd, Pasadena, CA 91104</t>
-  </si>
-  <si>
-    <t>Maria Edwards</t>
-  </si>
-  <si>
-    <t>(626) 794-2951</t>
-  </si>
-  <si>
     <t>Foothill Unity Center, Inc.</t>
   </si>
   <si>
     <t>Provides food and clothing to low income residents of Pasadena, Altadena, and So. Pasadena.  Call for an appointment.</t>
   </si>
   <si>
+    <t>191 N Oak Ave, Pasadena, CA 91107</t>
+  </si>
+  <si>
+    <t>Tashera Taylor</t>
+  </si>
+  <si>
+    <t>(626) 584-7420</t>
+  </si>
+  <si>
     <t>free food,free clothing</t>
   </si>
   <si>
-    <t>191 N Oak Ave, Pasadena, CA 91107</t>
-  </si>
-  <si>
-    <t>Tashera Taylor</t>
-  </si>
-  <si>
-    <t>(626) 584-7420</t>
-  </si>
-  <si>
     <t>Villa Parke Community Center-Free Meal Program</t>
   </si>
   <si>
@@ -220,36 +220,36 @@
     <t>Provides temporary financial assistance and employment focused services to families</t>
   </si>
   <si>
+    <t>955 N Lake Ave, Pasadena, CA 91104</t>
+  </si>
+  <si>
+    <t>(626) 791-6333</t>
+  </si>
+  <si>
+    <t>www.ladpss.org</t>
+  </si>
+  <si>
     <t>financial aid,employment</t>
   </si>
   <si>
-    <t>955 N Lake Ave, Pasadena, CA 91104</t>
-  </si>
-  <si>
-    <t>(626) 791-6333</t>
-  </si>
-  <si>
-    <t>www.ladpss.org</t>
-  </si>
-  <si>
     <t>Lake Avenue Community Foundation</t>
   </si>
   <si>
     <t>Tutoring/mentoring.</t>
   </si>
   <si>
+    <t>712 E Villa St, Pasadena, CA 91101</t>
+  </si>
+  <si>
+    <t>Nancy Stiles</t>
+  </si>
+  <si>
+    <t>(626) 449-4960</t>
+  </si>
+  <si>
     <t>tutoring,mentoring</t>
   </si>
   <si>
-    <t>712 E Villa St, Pasadena, CA 91101</t>
-  </si>
-  <si>
-    <t>Nancy Stiles</t>
-  </si>
-  <si>
-    <t>(626) 449-4960</t>
-  </si>
-  <si>
     <t>Meals On Wheels, Pasadena</t>
   </si>
   <si>
@@ -271,15 +271,15 @@
     <t>Mental Illness Services</t>
   </si>
   <si>
+    <t>1020 S Arroyo Pkwy, Pasadena, CA 91105</t>
+  </si>
+  <si>
+    <t>(626) 403-4888</t>
+  </si>
+  <si>
     <t>mental health</t>
   </si>
   <si>
-    <t>1020 S Arroyo Pkwy, Pasadena, CA 91105</t>
-  </si>
-  <si>
-    <t>(626) 403-4888</t>
-  </si>
-  <si>
     <t>Salvation Army Social Services</t>
   </si>
   <si>
@@ -319,81 +319,81 @@
     <t>This intake center is the entry point into Pasadena’s homeless services</t>
   </si>
   <si>
+    <t>825 E Orange Grove Blvd, Pasadena, CA 91104</t>
+  </si>
+  <si>
+    <t>(626) 791-6610</t>
+  </si>
+  <si>
+    <t>info@unionstationhs.org</t>
+  </si>
+  <si>
+    <t>unionstationhs.org</t>
+  </si>
+  <si>
     <t>homeless shelters,family shelters,women shelters,veterans services,substance abuse recovery,alcohol treatment,mental health</t>
   </si>
   <si>
-    <t>825 E Orange Grove Blvd, Pasadena, CA 91104</t>
-  </si>
-  <si>
-    <t>(626) 791-6610</t>
-  </si>
-  <si>
-    <t>info@unionstationhs.org</t>
-  </si>
-  <si>
-    <t>unionstationhs.org</t>
-  </si>
-  <si>
     <t>Ability First-Lawrence L. Frank Center</t>
   </si>
   <si>
     <t>Providing programs and services to the disabled community</t>
   </si>
   <si>
+    <t>201 S Kinneloa Ave, Pasadena, CA 91107</t>
+  </si>
+  <si>
+    <t>Michael Barkyounb</t>
+  </si>
+  <si>
+    <t>(626) 449-5661</t>
+  </si>
+  <si>
+    <t>www.abilityfirst.org</t>
+  </si>
+  <si>
     <t>disabled services</t>
   </si>
   <si>
-    <t>201 S Kinneloa Ave, Pasadena, CA 91107</t>
-  </si>
-  <si>
-    <t>Michael Barkyounb</t>
-  </si>
-  <si>
-    <t>(626) 449-5661</t>
-  </si>
-  <si>
-    <t>www.abilityfirst.org</t>
-  </si>
-  <si>
     <t>Aspires West Pasadena</t>
   </si>
   <si>
     <t>Mentoring, tutoring, sharing employment skills, training, and counseling.</t>
   </si>
   <si>
+    <t>119 E Washington Blvd, Pasadena, CA 91103</t>
+  </si>
+  <si>
+    <t>(626) 797-0789</t>
+  </si>
+  <si>
+    <t>aspireswestpas@gmail.com</t>
+  </si>
+  <si>
     <t>tutoring,mentoring,employment</t>
   </si>
   <si>
-    <t>119 E Washington Blvd, Pasadena, CA 91103</t>
-  </si>
-  <si>
-    <t>(626) 797-0789</t>
-  </si>
-  <si>
-    <t>aspireswestpas@gmail.com</t>
-  </si>
-  <si>
     <t>Boys &amp; Girls Club of Pasadena</t>
   </si>
   <si>
     <t>After–School Programs</t>
   </si>
   <si>
+    <t>3301 Thorndale Rd, Pasadena, CA 91107</t>
+  </si>
+  <si>
+    <t>(626) 449-9100</t>
+  </si>
+  <si>
+    <t>info@bgcpasadena.org</t>
+  </si>
+  <si>
+    <t>www.bgcpasadena.org</t>
+  </si>
+  <si>
     <t>after school programs</t>
   </si>
   <si>
-    <t>3301 Thorndale Rd, Pasadena, CA 91107</t>
-  </si>
-  <si>
-    <t>(626) 449-9100</t>
-  </si>
-  <si>
-    <t>info@bgcpasadena.org</t>
-  </si>
-  <si>
-    <t>www.bgcpasadena.org</t>
-  </si>
-  <si>
     <t>Boys &amp; Girls Club of Pasadena-Performing Arts Center</t>
   </si>
   <si>
@@ -424,42 +424,42 @@
     <t>Child care referrals for all working parents. Call for more information.</t>
   </si>
   <si>
+    <t>2465 E Walnut St, Pasadena, CA 91107</t>
+  </si>
+  <si>
+    <t>Natalie Duong</t>
+  </si>
+  <si>
+    <t>(626) 449-8221</t>
+  </si>
+  <si>
+    <t>www.optionscc.org</t>
+  </si>
+  <si>
     <t>child care</t>
   </si>
   <si>
-    <t>2465 E Walnut St, Pasadena, CA 91107</t>
-  </si>
-  <si>
-    <t>Natalie Duong</t>
-  </si>
-  <si>
-    <t>(626) 449-8221</t>
-  </si>
-  <si>
-    <t>www.optionscc.org</t>
-  </si>
-  <si>
     <t>Day One</t>
   </si>
   <si>
     <t>Preventative services for substance abuse</t>
   </si>
   <si>
+    <t>175 N Euclid Ave, Pasadena, CA 91101</t>
+  </si>
+  <si>
+    <t>Christy Basani</t>
+  </si>
+  <si>
+    <t>(626) 229-9750</t>
+  </si>
+  <si>
+    <t>www.dayonepasadena.com</t>
+  </si>
+  <si>
     <t>substance abuse prevention</t>
   </si>
   <si>
-    <t>175 N Euclid Ave, Pasadena, CA 91101</t>
-  </si>
-  <si>
-    <t>Christy Basani</t>
-  </si>
-  <si>
-    <t>(626) 229-9750</t>
-  </si>
-  <si>
-    <t>www.dayonepasadena.com</t>
-  </si>
-  <si>
     <t>Give The Streets Back!</t>
   </si>
   <si>
@@ -496,21 +496,21 @@
     <t>After-school homework assistance for Pre-k through 12th.</t>
   </si>
   <si>
+    <t>2023 N Lincoln Ave, Altadena, CA 91001</t>
+  </si>
+  <si>
+    <t>Patricia Tucker</t>
+  </si>
+  <si>
+    <t>(626) 794-5889</t>
+  </si>
+  <si>
+    <t>www.natharebuilds.org</t>
+  </si>
+  <si>
     <t>tutoring</t>
   </si>
   <si>
-    <t>2023 N Lincoln Ave, Altadena, CA 91001</t>
-  </si>
-  <si>
-    <t>Patricia Tucker</t>
-  </si>
-  <si>
-    <t>(626) 794-5889</t>
-  </si>
-  <si>
-    <t>www.natharebuilds.org</t>
-  </si>
-  <si>
     <t>Options Child Development Centers</t>
   </si>
   <si>
@@ -601,48 +601,48 @@
     <t>Early childhood development, housing, nutrition and job training. </t>
   </si>
   <si>
+    <t>2650 E Foothill Blvd, Pasadena, CA 91107</t>
+  </si>
+  <si>
+    <t>(888) 412-8397</t>
+  </si>
+  <si>
+    <t>(310) 217-2935</t>
+  </si>
+  <si>
     <t>social services,family planning,housing,employment services</t>
   </si>
   <si>
-    <t>2650 E Foothill Blvd, Pasadena, CA 91107</t>
-  </si>
-  <si>
-    <t>(888) 412-8397</t>
-  </si>
-  <si>
-    <t>(310) 217-2935</t>
-  </si>
-  <si>
     <t>Rosemary Children's Services</t>
   </si>
   <si>
     <t>Residential, Foster Care , and Mental health services for children</t>
   </si>
   <si>
+    <t>36 S Kinneloa Ave #200, Pasadena, CA 91107</t>
+  </si>
+  <si>
+    <t>(626) 844-3033</t>
+  </si>
+  <si>
     <t>foster care,mental health</t>
   </si>
   <si>
-    <t>36 S Kinneloa Ave #200, Pasadena, CA 91107</t>
-  </si>
-  <si>
-    <t>(626) 844-3033</t>
-  </si>
-  <si>
     <t>Hathaway-Sycamores</t>
   </si>
   <si>
     <t>Child &amp; Family Wrap-Around Services</t>
   </si>
   <si>
+    <t>210 S De Lacey Ave #110, Pasadena, CA 91105</t>
+  </si>
+  <si>
+    <t>(626) 395-7100</t>
+  </si>
+  <si>
     <t>social services,family planning</t>
   </si>
   <si>
-    <t>210 S De Lacey Ave #110, Pasadena, CA 91105</t>
-  </si>
-  <si>
-    <t>(626) 395-7100</t>
-  </si>
-  <si>
     <t>Foothill Unity Center</t>
   </si>
   <si>
@@ -658,54 +658,54 @@
     <t>Transition resources for youth ages 14 to 24</t>
   </si>
   <si>
+    <t>1110 E Green St, Pasadena, CA 91106</t>
+  </si>
+  <si>
+    <t>(626) 356-5350</t>
+  </si>
+  <si>
     <t>foster care,tutoring,mentoring</t>
   </si>
   <si>
-    <t>1110 E Green St, Pasadena, CA 91106</t>
-  </si>
-  <si>
-    <t>(626) 356-5350</t>
-  </si>
-  <si>
     <t>YWCA Pasadena-Foothill Valley</t>
   </si>
   <si>
     <t>Programs for women and girls’ in the community.</t>
   </si>
   <si>
+    <t>1015 N Lake Ave #100, Pasadena, CA 91104</t>
+  </si>
+  <si>
+    <t>Camelia Joseph</t>
+  </si>
+  <si>
+    <t>(626) 296-8433</t>
+  </si>
+  <si>
     <t>after school programs,community programs</t>
   </si>
   <si>
-    <t>1015 N Lake Ave #100, Pasadena, CA 91104</t>
-  </si>
-  <si>
-    <t>Camelia Joseph</t>
-  </si>
-  <si>
-    <t>(626) 296-8433</t>
-  </si>
-  <si>
     <t>Human Relations Commission</t>
   </si>
   <si>
     <t>Provides assistance to individuals and groups in bettering relations among people.</t>
   </si>
   <si>
+    <t>1020 N Fair Oaks Ave, Pasadena, CA 91103</t>
+  </si>
+  <si>
+    <t>William Syms</t>
+  </si>
+  <si>
+    <t>(626) 744-7295</t>
+  </si>
+  <si>
+    <t>wsyms@cityofpasadena.net</t>
+  </si>
+  <si>
     <t>community programs</t>
   </si>
   <si>
-    <t>1020 N Fair Oaks Ave, Pasadena, CA 91103</t>
-  </si>
-  <si>
-    <t>William Syms</t>
-  </si>
-  <si>
-    <t>(626) 744-7295</t>
-  </si>
-  <si>
-    <t>wsyms@cityofpasadena.net</t>
-  </si>
-  <si>
     <t>Neighborhood Connections</t>
   </si>
   <si>
@@ -745,18 +745,18 @@
     <t>Provide advice and recommendations that help to improve the accessibility of the City facilities and services to people with disabilities</t>
   </si>
   <si>
+    <t>Robert Gorski</t>
+  </si>
+  <si>
+    <t>(626) 744-4782</t>
+  </si>
+  <si>
+    <t>rgorski@cityofpasadena.net</t>
+  </si>
+  <si>
     <t>community programs,disability services</t>
   </si>
   <si>
-    <t>Robert Gorski</t>
-  </si>
-  <si>
-    <t>(626) 744-4782</t>
-  </si>
-  <si>
-    <t>rgorski@cityofpasadena.net</t>
-  </si>
-  <si>
     <t>Adaptive Recreation – City of Pasadena</t>
   </si>
   <si>
@@ -778,18 +778,18 @@
     <t>Counseling and vocational services to persons with disabilities</t>
   </si>
   <si>
+    <t>150 S Los Robles Ave # 300, Pasadena, CA 91101</t>
+  </si>
+  <si>
+    <t>(626) 304-8300</t>
+  </si>
+  <si>
+    <t>www.dor.ca.gov</t>
+  </si>
+  <si>
     <t>disabled services,employment services</t>
   </si>
   <si>
-    <t>150 S Los Robles Ave # 300, Pasadena, CA 91101</t>
-  </si>
-  <si>
-    <t>(626) 304-8300</t>
-  </si>
-  <si>
-    <t>www.dor.ca.gov</t>
-  </si>
-  <si>
     <t>Eastern Los Angeles Regional Center</t>
   </si>
   <si>
@@ -823,18 +823,18 @@
     <t>Connects individuals with disabilities and their family with community and services</t>
   </si>
   <si>
+    <t>3303 Wilshire Blvd # 700, Los Angeles, CA 90010</t>
+  </si>
+  <si>
+    <t>(213) 383-1300</t>
+  </si>
+  <si>
+    <t>www.lanterman.org</t>
+  </si>
+  <si>
     <t>social services,disability services</t>
   </si>
   <si>
-    <t>3303 Wilshire Blvd # 700, Los Angeles, CA 90010</t>
-  </si>
-  <si>
-    <t>(213) 383-1300</t>
-  </si>
-  <si>
-    <t>www.lanterman.org</t>
-  </si>
-  <si>
     <t>L.A. County Department of Public Social Services</t>
   </si>
   <si>
@@ -865,30 +865,30 @@
     <t>homeless/transitional program</t>
   </si>
   <si>
+    <t>3500 E Colorado Blvd, Pasadena, CA 91107</t>
+  </si>
+  <si>
+    <t>(626) 304-4815</t>
+  </si>
+  <si>
     <t>family shelters,employment services,social services</t>
   </si>
   <si>
-    <t>3500 E Colorado Blvd, Pasadena, CA 91107</t>
-  </si>
-  <si>
-    <t>(626) 304-4815</t>
-  </si>
-  <si>
     <t>HOMELESS OUTREACH (H.O.P.E.)</t>
   </si>
   <si>
     <t>Compassionate mental health and law enforcement emergency response to those in need of mental health, housing, and related social services</t>
   </si>
   <si>
+    <t>207 Garfield Ave, Pasadena, CA 91101</t>
+  </si>
+  <si>
+    <t>(626) 744-7054</t>
+  </si>
+  <si>
     <t>urgent care,police,mental health,social services</t>
   </si>
   <si>
-    <t>207 Garfield Ave, Pasadena, CA 91101</t>
-  </si>
-  <si>
-    <t>(626) 744-7054</t>
-  </si>
-  <si>
     <t>City of Pasadena Human Services &amp; Recreation Dept.</t>
   </si>
   <si>
@@ -919,30 +919,30 @@
     <t>Recorded announcement of all available City of Pasadena jobs.</t>
   </si>
   <si>
+    <t>(626) 744-4600</t>
+  </si>
+  <si>
     <t>employment services</t>
   </si>
   <si>
-    <t>(626) 744-4600</t>
-  </si>
-  <si>
     <t>Community Education Center</t>
   </si>
   <si>
     <t>Primarily noncredit programs onsite and in the community</t>
   </si>
   <si>
+    <t>3035 E Foothill Blvd, Pasadena, CA 91107</t>
+  </si>
+  <si>
+    <t>(626) 585-3000</t>
+  </si>
+  <si>
+    <t>www.pasadena.edu/CEC</t>
+  </si>
+  <si>
     <t>classes</t>
   </si>
   <si>
-    <t>3035 E Foothill Blvd, Pasadena, CA 91107</t>
-  </si>
-  <si>
-    <t>(626) 585-3000</t>
-  </si>
-  <si>
-    <t>www.pasadena.edu/CEC</t>
-  </si>
-  <si>
     <t>Foothill Employment and Training Connection</t>
   </si>
   <si>
@@ -979,18 +979,18 @@
     <t>Offers tuition, books, and childcare assistance. Call for more information.</t>
   </si>
   <si>
+    <t>1570 E Colorado Blvd L-101, Pasadena, CA 91106</t>
+  </si>
+  <si>
+    <t>(626) 585-7060</t>
+  </si>
+  <si>
+    <t>www.pasadena.edu</t>
+  </si>
+  <si>
     <t>college,child care,financial aid</t>
   </si>
   <si>
-    <t>1570 E Colorado Blvd L-101, Pasadena, CA 91106</t>
-  </si>
-  <si>
-    <t>(626) 585-7060</t>
-  </si>
-  <si>
-    <t>www.pasadena.edu</t>
-  </si>
-  <si>
     <t>PUSD Regional Occupational Program (ROP)</t>
   </si>
   <si>
@@ -1057,12 +1057,12 @@
     <t>Help meet the L.A. County GAIN education/ training requirements and the federal "work activities" requirement under the new welfare rules</t>
   </si>
   <si>
+    <t>1570 E Colorado Blvd, Pasadena, CA 91106</t>
+  </si>
+  <si>
     <t>college,employment services</t>
   </si>
   <si>
-    <t>1570 E Colorado Blvd, Pasadena, CA 91106</t>
-  </si>
-  <si>
     <t>Pasadena Community Job Center</t>
   </si>
   <si>
@@ -1096,54 +1096,54 @@
     <t>Reintegration Services</t>
   </si>
   <si>
+    <t>290 E Elizabeth St, Pasadena, CA 91104</t>
+  </si>
+  <si>
+    <t>(626) 644-7525</t>
+  </si>
+  <si>
+    <t>Andrewsjc1988@gmail.com</t>
+  </si>
+  <si>
     <t>substance abuse recovery</t>
   </si>
   <si>
-    <t>290 E Elizabeth St, Pasadena, CA 91104</t>
-  </si>
-  <si>
-    <t>(626) 644-7525</t>
-  </si>
-  <si>
-    <t>Andrewsjc1988@gmail.com</t>
-  </si>
-  <si>
     <t>ACTS Thrift Store</t>
   </si>
   <si>
+    <t>1382 Locust St, Pasadena, CA 91106</t>
+  </si>
+  <si>
+    <t>Dominique Franklin</t>
+  </si>
+  <si>
+    <t>(626) 201-3463</t>
+  </si>
+  <si>
+    <t>dfranklin@actsthrift.org</t>
+  </si>
+  <si>
     <t>reintegration</t>
   </si>
   <si>
-    <t>1382 Locust St, Pasadena, CA 91106</t>
-  </si>
-  <si>
-    <t>Dominique Franklin</t>
-  </si>
-  <si>
-    <t>(626) 201-3463</t>
-  </si>
-  <si>
-    <t>dfranklin@actsthrift.org</t>
-  </si>
-  <si>
     <t>AIDS Service Center</t>
   </si>
   <si>
+    <t>65 N Raymond Ave #240, Pasadena, CA 91103</t>
+  </si>
+  <si>
+    <t>Gabriel Solorio</t>
+  </si>
+  <si>
+    <t>(626) 441-8495 ext 13</t>
+  </si>
+  <si>
+    <t>G5@aidscc.org</t>
+  </si>
+  <si>
     <t>medical health</t>
   </si>
   <si>
-    <t>65 N Raymond Ave #240, Pasadena, CA 91103</t>
-  </si>
-  <si>
-    <t>Gabriel Solorio</t>
-  </si>
-  <si>
-    <t>(626) 441-8495 ext 13</t>
-  </si>
-  <si>
-    <t>G5@aidscc.org</t>
-  </si>
-  <si>
     <t>Adult Rehab Center</t>
   </si>
   <si>
@@ -1180,24 +1180,24 @@
     <t>Ambassadors for Peace</t>
   </si>
   <si>
+    <t>Yvette McDowell/Steven Trejo/Leo Hurtado</t>
+  </si>
+  <si>
+    <t>(626) 483-4151</t>
+  </si>
+  <si>
+    <t>(626) 827-7172</t>
+  </si>
+  <si>
+    <t>(626) 773-2703</t>
+  </si>
+  <si>
+    <t>L6152ww@att.net</t>
+  </si>
+  <si>
     <t>substance abuse prevention,mental health,mentoring,reintegration</t>
   </si>
   <si>
-    <t>Yvette McDowell/Steven Trejo/Leo Hurtado</t>
-  </si>
-  <si>
-    <t>(626) 483-4151</t>
-  </si>
-  <si>
-    <t>(626) 827-7172</t>
-  </si>
-  <si>
-    <t>(626) 773-2703</t>
-  </si>
-  <si>
-    <t>L6152ww@att.net</t>
-  </si>
-  <si>
     <t>Bread for the World</t>
   </si>
   <si>
@@ -1282,21 +1282,21 @@
     <t>Community Health Alliance of Pasadena (CHAP)</t>
   </si>
   <si>
+    <t>455 W Montana St, Pasadena, CA 91103</t>
+  </si>
+  <si>
+    <t>Noemi Carareo</t>
+  </si>
+  <si>
+    <t>(626) 486-9729</t>
+  </si>
+  <si>
+    <t>ncarareo@chapcare.org</t>
+  </si>
+  <si>
     <t>medical health,mental health,disability services</t>
   </si>
   <si>
-    <t>455 W Montana St, Pasadena, CA 91103</t>
-  </si>
-  <si>
-    <t>Noemi Carareo</t>
-  </si>
-  <si>
-    <t>(626) 486-9729</t>
-  </si>
-  <si>
-    <t>ncarareo@chapcare.org</t>
-  </si>
-  <si>
     <t>Community Services Section (Pasadena Police Dept)</t>
   </si>
   <si>
@@ -1306,105 +1306,105 @@
     <t>(626) 744-4551</t>
   </si>
   <si>
+    <t>175 S Moreno Dr, Beverly Hills, CA 90212</t>
+  </si>
+  <si>
+    <t>Christy Zamani</t>
+  </si>
+  <si>
+    <t>claudia@godayone.org</t>
+  </si>
+  <si>
     <t>substance abuse prevention,community programs</t>
   </si>
   <si>
-    <t>175 S Moreno Dr, Beverly Hills, CA 90212</t>
-  </si>
-  <si>
-    <t>Christy Zamani</t>
-  </si>
-  <si>
-    <t>claudia@godayone.org</t>
-  </si>
-  <si>
     <t>Department of Rehabilitaiton</t>
   </si>
   <si>
+    <t>Diana Ling</t>
+  </si>
+  <si>
+    <t>(626) 304-8336</t>
+  </si>
+  <si>
+    <t>Diana.ling@dor.ca.gov</t>
+  </si>
+  <si>
     <t>substance abuse recovery,reintegration</t>
   </si>
   <si>
-    <t>Diana Ling</t>
-  </si>
-  <si>
-    <t>(626) 304-8336</t>
-  </si>
-  <si>
-    <t>Diana.ling@dor.ca.gov</t>
-  </si>
-  <si>
     <t>Five Acres</t>
   </si>
   <si>
+    <t>760 Mountain View St, Altadena, CA 91001</t>
+  </si>
+  <si>
+    <t>Krystal Audoma</t>
+  </si>
+  <si>
+    <t>(323) 841-6853</t>
+  </si>
+  <si>
+    <t>kaudoma@fiveacres.org</t>
+  </si>
+  <si>
     <t>foster care,counseling,social services</t>
   </si>
   <si>
-    <t>760 Mountain View St, Altadena, CA 91001</t>
-  </si>
-  <si>
-    <t>Krystal Audoma</t>
-  </si>
-  <si>
-    <t>(323) 841-6853</t>
-  </si>
-  <si>
-    <t>kaudoma@fiveacres.org</t>
-  </si>
-  <si>
     <t>Flintridge Center</t>
   </si>
   <si>
+    <t>236 W Mountain St #106, Pasadena, CA 91103</t>
+  </si>
+  <si>
+    <t>Daniel Torres/Chris Finney</t>
+  </si>
+  <si>
+    <t>(626) 449-0839 ext 109</t>
+  </si>
+  <si>
+    <t>(626) 449-0839 ext 110</t>
+  </si>
+  <si>
+    <t>daniel@flintridge.org</t>
+  </si>
+  <si>
+    <t>chris@flintridge.org</t>
+  </si>
+  <si>
     <t>reintegration,mentoring,employment services,tutoring</t>
   </si>
   <si>
-    <t>236 W Mountain St #106, Pasadena, CA 91103</t>
-  </si>
-  <si>
-    <t>Daniel Torres/Chris Finney</t>
-  </si>
-  <si>
-    <t>(626) 449-0839 ext 109</t>
-  </si>
-  <si>
-    <t>(626) 449-0839 ext 110</t>
-  </si>
-  <si>
-    <t>daniel@flintridge.org</t>
-  </si>
-  <si>
-    <t>chris@flintridge.org</t>
-  </si>
-  <si>
     <t>Foothill Family Service</t>
   </si>
   <si>
+    <t>118 S Oak Knoll Ave, Pasadena, CA 91101</t>
+  </si>
+  <si>
+    <t>(626) 795-6907</t>
+  </si>
+  <si>
     <t>counseling,substance abuse recovery,mentoring</t>
   </si>
   <si>
-    <t>118 S Oak Knoll Ave, Pasadena, CA 91101</t>
-  </si>
-  <si>
-    <t>(626) 795-6907</t>
-  </si>
-  <si>
     <t>Foothill Workforce Investment Board</t>
   </si>
   <si>
+    <t>Sarah Mendoza/Serafin/Garcia</t>
+  </si>
+  <si>
+    <t>(626) 584-8383</t>
+  </si>
+  <si>
+    <t>smendoza@foothilletc.org</t>
+  </si>
+  <si>
+    <t>sgarcia@foothilletc.org</t>
+  </si>
+  <si>
     <t>reintegration,employment services</t>
   </si>
   <si>
-    <t>Sarah Mendoza/Serafin/Garcia</t>
-  </si>
-  <si>
-    <t>(626) 584-8383</t>
-  </si>
-  <si>
-    <t>smendoza@foothilletc.org</t>
-  </si>
-  <si>
-    <t>sgarcia@foothilletc.org</t>
-  </si>
-  <si>
     <t>Friends Outside in Los Angeles County</t>
   </si>
   <si>
@@ -1432,30 +1432,30 @@
     <t>Grandview Foundation</t>
   </si>
   <si>
+    <t>1230 Marengo Ave, Pasadena, CA 91103</t>
+  </si>
+  <si>
+    <t>Dave Booth/Paul/Sheila Romero</t>
+  </si>
+  <si>
+    <t>(626) 797-3799</t>
+  </si>
+  <si>
+    <t>(626) 797-3799 ext 104</t>
+  </si>
+  <si>
+    <t>(626) 716-1414</t>
+  </si>
+  <si>
+    <t>sheila@grandviewfoundation.com</t>
+  </si>
+  <si>
+    <t>Dave.booth72@yahoo.com</t>
+  </si>
+  <si>
     <t>reintegration,substance abuse recovery</t>
   </si>
   <si>
-    <t>1230 Marengo Ave, Pasadena, CA 91103</t>
-  </si>
-  <si>
-    <t>Dave Booth/Paul/Sheila Romero</t>
-  </si>
-  <si>
-    <t>(626) 797-3799</t>
-  </si>
-  <si>
-    <t>(626) 797-3799 ext 104</t>
-  </si>
-  <si>
-    <t>(626) 716-1414</t>
-  </si>
-  <si>
-    <t>sheila@grandviewfoundation.com</t>
-  </si>
-  <si>
-    <t>Dave.booth72@yahoo.com</t>
-  </si>
-  <si>
     <t>Hallelojah House</t>
   </si>
   <si>
@@ -1474,21 +1474,21 @@
     <t>Hunting Hospital Community Outreach</t>
   </si>
   <si>
+    <t>100 E California Blvd, Pasadena, CA 91105</t>
+  </si>
+  <si>
+    <t>Kathy Eastwood (RN)</t>
+  </si>
+  <si>
+    <t>(626) 397-2068</t>
+  </si>
+  <si>
+    <t>Kathleen.eastwood@huntingtonhospital.com</t>
+  </si>
+  <si>
     <t>medical health,nutrition</t>
   </si>
   <si>
-    <t>100 E California Blvd, Pasadena, CA 91105</t>
-  </si>
-  <si>
-    <t>Kathy Eastwood (RN)</t>
-  </si>
-  <si>
-    <t>(626) 397-2068</t>
-  </si>
-  <si>
-    <t>Kathleen.eastwood@huntingtonhospital.com</t>
-  </si>
-  <si>
     <t>IBEW/ESSCO</t>
   </si>
   <si>
@@ -1573,21 +1573,21 @@
     <t>Law Offices of Tarek Shawky</t>
   </si>
   <si>
+    <t>871 E Washington Blvd #205, Pasadena, CA 91104</t>
+  </si>
+  <si>
+    <t>Tarek Shawky</t>
+  </si>
+  <si>
+    <t>(323) 393-3301</t>
+  </si>
+  <si>
+    <t>tarekshawky@gmail.com</t>
+  </si>
+  <si>
     <t>legal services</t>
   </si>
   <si>
-    <t>871 E Washington Blvd #205, Pasadena, CA 91104</t>
-  </si>
-  <si>
-    <t>Tarek Shawky</t>
-  </si>
-  <si>
-    <t>(323) 393-3301</t>
-  </si>
-  <si>
-    <t>tarekshawky@gmail.com</t>
-  </si>
-  <si>
     <t>Learning Works Charter School</t>
   </si>
   <si>
@@ -1687,84 +1687,84 @@
     <t>Pasadena City College</t>
   </si>
   <si>
+    <t>Theresa Reed/Anthony Smith</t>
+  </si>
+  <si>
+    <t>(626) 585-3037</t>
+  </si>
+  <si>
+    <t>txreed@pasadena.edu</t>
+  </si>
+  <si>
     <t>college</t>
   </si>
   <si>
-    <t>Theresa Reed/Anthony Smith</t>
-  </si>
-  <si>
-    <t>(626) 585-3037</t>
-  </si>
-  <si>
-    <t>txreed@pasadena.edu</t>
-  </si>
-  <si>
     <t>Pasadena Federal Credit Union</t>
   </si>
   <si>
+    <t>1038 S Fair Oaks Ave, Pasadena, CA 91105</t>
+  </si>
+  <si>
+    <t>John Schaefer/Veronica R.</t>
+  </si>
+  <si>
+    <t>(626) 799-0882 ext 251</t>
+  </si>
+  <si>
+    <t>jschaefer@pcu.org</t>
+  </si>
+  <si>
     <t>financial aid</t>
   </si>
   <si>
-    <t>1038 S Fair Oaks Ave, Pasadena, CA 91105</t>
-  </si>
-  <si>
-    <t>John Schaefer/Veronica R.</t>
-  </si>
-  <si>
-    <t>(626) 799-0882 ext 251</t>
-  </si>
-  <si>
-    <t>jschaefer@pcu.org</t>
-  </si>
-  <si>
     <t>PATH People Assisting the homeless</t>
   </si>
   <si>
+    <t>340 N Madison Ave, Monrovia, CA 91016</t>
+  </si>
+  <si>
+    <t>Steve Fietcher/Keinesha J/J.Roberts</t>
+  </si>
+  <si>
+    <t>(213) 422-0380</t>
+  </si>
+  <si>
+    <t>Stephenf@epath.org</t>
+  </si>
+  <si>
+    <t>keineshaj@epth.org</t>
+  </si>
+  <si>
+    <t>johanr@epath.org</t>
+  </si>
+  <si>
     <t>housing</t>
   </si>
   <si>
-    <t>340 N Madison Ave, Monrovia, CA 91016</t>
-  </si>
-  <si>
-    <t>Steve Fietcher/Keinesha J/J.Roberts</t>
-  </si>
-  <si>
-    <t>(213) 422-0380</t>
-  </si>
-  <si>
-    <t>Stephenf@epath.org</t>
-  </si>
-  <si>
-    <t>keineshaj@epth.org</t>
-  </si>
-  <si>
-    <t>johanr@epath.org</t>
-  </si>
-  <si>
     <t>Peace Over Violence</t>
   </si>
   <si>
+    <t>892 N Fair Oaks Ave, Pasadena, CA 91103</t>
+  </si>
+  <si>
+    <t>Jessie Corral/Claudia Sibaya/Imelda Talamantes/Sandy</t>
+  </si>
+  <si>
+    <t>(626) 584-6191</t>
+  </si>
+  <si>
+    <t>jessie@peaceoverviolence.org</t>
+  </si>
+  <si>
+    <t>claudias@peaceoverviolence.org</t>
+  </si>
+  <si>
+    <t>Sandy@peaceoverviolence.org</t>
+  </si>
+  <si>
     <t>safe houses,abuse counseling,women's programs</t>
   </si>
   <si>
-    <t>892 N Fair Oaks Ave, Pasadena, CA 91103</t>
-  </si>
-  <si>
-    <t>Jessie Corral/Claudia Sibaya/Imelda Talamantes/Sandy</t>
-  </si>
-  <si>
-    <t>(626) 584-6191</t>
-  </si>
-  <si>
-    <t>jessie@peaceoverviolence.org</t>
-  </si>
-  <si>
-    <t>claudias@peaceoverviolence.org</t>
-  </si>
-  <si>
-    <t>Sandy@peaceoverviolence.org</t>
-  </si>
-  <si>
     <t>Probation/AB-109</t>
   </si>
   <si>
@@ -1849,24 +1849,24 @@
     <t>Union Station Homeless Center (SRO)</t>
   </si>
   <si>
+    <t>412 S Raymond Ave, Pasadena, CA 91105</t>
+  </si>
+  <si>
+    <t>Rafael Ventura</t>
+  </si>
+  <si>
+    <t>(626) 318-5062</t>
+  </si>
+  <si>
+    <t>rventura@unionstationhs.org</t>
+  </si>
+  <si>
+    <t>raffaelventura@sbcglobal.net</t>
+  </si>
+  <si>
     <t>shelter</t>
   </si>
   <si>
-    <t>412 S Raymond Ave, Pasadena, CA 91105</t>
-  </si>
-  <si>
-    <t>Rafael Ventura</t>
-  </si>
-  <si>
-    <t>(626) 318-5062</t>
-  </si>
-  <si>
-    <t>rventura@unionstationhs.org</t>
-  </si>
-  <si>
-    <t>raffaelventura@sbcglobal.net</t>
-  </si>
-  <si>
     <t>USHS Sources</t>
   </si>
   <si>
@@ -1882,21 +1882,21 @@
     <t>Vintage Rose, Battered Women’s Shelter Corp</t>
   </si>
   <si>
+    <t>1053 E Orange Grove Ave, Burbank, CA 91501</t>
+  </si>
+  <si>
+    <t>Rosie</t>
+  </si>
+  <si>
+    <t>(626) 722-3896</t>
+  </si>
+  <si>
+    <t>rosalinmarshall@yahoo.com</t>
+  </si>
+  <si>
     <t>safe houses</t>
   </si>
   <si>
-    <t>1053 E Orange Grove Ave, Burbank, CA 91501</t>
-  </si>
-  <si>
-    <t>Rosie</t>
-  </si>
-  <si>
-    <t>(626) 722-3896</t>
-  </si>
-  <si>
-    <t>rosalinmarshall@yahoo.com</t>
-  </si>
-  <si>
     <t>Vocational Rehabilitation</t>
   </si>
   <si>
@@ -1915,18 +1915,18 @@
     <t>Youth Build</t>
   </si>
   <si>
+    <t>Delani Sins</t>
+  </si>
+  <si>
+    <t>(626) 437-3509</t>
+  </si>
+  <si>
+    <t>sherylturner@charter.net</t>
+  </si>
+  <si>
     <t>mentoring</t>
   </si>
   <si>
-    <t>Delani Sins</t>
-  </si>
-  <si>
-    <t>(626) 437-3509</t>
-  </si>
-  <si>
-    <t>sherylturner@charter.net</t>
-  </si>
-  <si>
     <t>Youth Moving On</t>
   </si>
   <si>
@@ -2494,12 +2494,12 @@
     <t>FREE loan of all types of medical equipment for in-home use to residents of the San Gabriel Valley.</t>
   </si>
   <si>
+    <t>info@cas1.org</t>
+  </si>
+  <si>
     <t>home health</t>
   </si>
   <si>
-    <t>info@cas1.org</t>
-  </si>
-  <si>
     <t>L.A. County In-Home Supportive Services  Burbank Office</t>
   </si>
   <si>
@@ -2863,12 +2863,12 @@
     <t>1st to 6th graders are invited to participate in a free monthly Saturday reading program</t>
   </si>
   <si>
+    <t>www.kidsreadingtosucceed.org</t>
+  </si>
+  <si>
     <t>literacy</t>
   </si>
   <si>
-    <t>www.kidsreadingtosucceed.org</t>
-  </si>
-  <si>
     <t>THE COMMUNITY EDUCATION CENTER</t>
   </si>
   <si>
@@ -3418,12 +3418,12 @@
     <t>A consignment shop run by volunteers displaying items handcrafted by seniors</t>
   </si>
   <si>
+    <t>820 E California Blvd, Pasadena, CA 91106</t>
+  </si>
+  <si>
     <t>senior services</t>
   </si>
   <si>
-    <t>820 E California Blvd, Pasadena, CA 91106</t>
-  </si>
-  <si>
     <t>Assistance League of Pasadena’s Treasure Fair Thrift Shop</t>
   </si>
   <si>
@@ -3640,15 +3640,15 @@
     <t>Foster care services</t>
   </si>
   <si>
+    <t>940 Avenue 64, Pasadena, CA 91105</t>
+  </si>
+  <si>
+    <t>(323) 254-2274 </t>
+  </si>
+  <si>
     <t>foster care</t>
   </si>
   <si>
-    <t>940 Avenue 64, Pasadena, CA 91105</t>
-  </si>
-  <si>
-    <t>(323) 254-2274 </t>
-  </si>
-  <si>
     <t>GIVE THE STREETS BACK !</t>
   </si>
   <si>
@@ -3661,15 +3661,15 @@
     <t>Child safety, Permanency, Access to Effective and caring service</t>
   </si>
   <si>
+    <t>532 E Colorado Blvd, Pasadena, CA 91101</t>
+  </si>
+  <si>
+    <t>(626) 229-3500</t>
+  </si>
+  <si>
     <t>abuse counseling</t>
   </si>
   <si>
-    <t>532 E Colorado Blvd, Pasadena, CA 91101</t>
-  </si>
-  <si>
-    <t>(626) 229-3500</t>
-  </si>
-  <si>
     <t>Victim Witness Assistance Program</t>
   </si>
   <si>
@@ -4243,18 +4243,18 @@
     <t>Senior/Disabled curb-to-curb transportation service provided for San Gabriel Area</t>
   </si>
   <si>
+    <t>221 E Walnut St #199, Pasadena, CA 91101</t>
+  </si>
+  <si>
+    <t>(626) 744-4094</t>
+  </si>
+  <si>
+    <t>www.cityofpasadena.net/DAR</t>
+  </si>
+  <si>
     <t>transportation</t>
   </si>
   <si>
-    <t>221 E Walnut St #199, Pasadena, CA 91101</t>
-  </si>
-  <si>
-    <t>(626) 744-4094</t>
-  </si>
-  <si>
-    <t>www.cityofpasadena.net/DAR</t>
-  </si>
-  <si>
     <t>ARTS (Area Rapid Transit System)</t>
   </si>
   <si>
@@ -4273,18 +4273,18 @@
     <t>Help all student Veterans and Military college admittal. Call for details.</t>
   </si>
   <si>
+    <t>1570 E Colorado Blvd l113, Pasadena, CA 91106</t>
+  </si>
+  <si>
+    <t>(626) 585 7294</t>
+  </si>
+  <si>
+    <t>tdpowell@pasadena.edu</t>
+  </si>
+  <si>
     <t>veterans</t>
   </si>
   <si>
-    <t>1570 E Colorado Blvd l113, Pasadena, CA 91106</t>
-  </si>
-  <si>
-    <t>(626) 585 7294</t>
-  </si>
-  <si>
-    <t>tdpowell@pasadena.edu</t>
-  </si>
-  <si>
     <t>Veterans Crisis line</t>
   </si>
   <si>
@@ -4378,12 +4378,12 @@
     <t>Non-emergency</t>
   </si>
   <si>
+    <t>(626) 744-4241</t>
+  </si>
+  <si>
     <t>police</t>
   </si>
   <si>
-    <t>(626) 744-4241</t>
-  </si>
-  <si>
     <t>Services for survivors of sexual assault . Call for details.</t>
   </si>
   <si>
@@ -4435,13 +4435,13 @@
     <t>Service for equity for women and girls.</t>
   </si>
   <si>
+    <t>P.O. Box 94309</t>
+  </si>
+  <si>
+    <t>aauwpasadena.wordpress.com</t>
+  </si>
+  <si>
     <t>women programs</t>
-  </si>
-  <si>
-    <t>P.O. Box 94309</t>
-  </si>
-  <si>
-    <t>aauwpasadena.wordpress.com</t>
   </si>
   <si>
     <t>Council of Women’s Clubs</t>
@@ -6279,12 +6279,12 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:U350"/>
+  <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A1120" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1126" activeCellId="0" sqref="A1126"/>
+      <selection pane="bottomLeft" activeCell="C350" activeCellId="0" sqref="C350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6292,12 +6292,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.69387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="21.5561224489796"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4081632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.9591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.5561224489796"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="14.1122448979592"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="22.2448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="21.5561224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5561224489796"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="14.1122448979592"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="22.2448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="21.5561224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6355,10 +6354,10 @@
       <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="T1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6376,13 +6375,13 @@
       <c r="E2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="J2" s="1"/>
+      <c r="R2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
@@ -6404,10 +6403,10 @@
       <c r="G3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="J3" s="1"/>
+      <c r="R3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
@@ -6429,10 +6428,10 @@
       <c r="G4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="R4" s="0" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6456,7 +6455,7 @@
       <c r="G5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="R5" s="0" t="s">
         <v>43</v>
       </c>
     </row>
@@ -6480,10 +6479,10 @@
       <c r="G6" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="J6" s="1"/>
+      <c r="R6" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="str">
@@ -6494,15 +6493,15 @@
         <v>50</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="R7" s="0" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="str">
@@ -6516,20 +6515,20 @@
         <v>54</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="N8" s="0" t="s">
+      <c r="J8" s="1"/>
+      <c r="M8" s="0" t="s">
         <v>58</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6543,21 +6542,21 @@
       <c r="C9" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>33</v>
+      <c r="F9" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="N9" s="0" t="s">
+      <c r="J9" s="1"/>
+      <c r="M9" s="0" t="s">
         <v>64</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6574,14 +6573,14 @@
       <c r="E10" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="J10" s="1"/>
+      <c r="M10" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="N10" s="0" t="s">
+      <c r="R10" s="0" t="s">
         <v>70</v>
       </c>
     </row>
@@ -6605,7 +6604,7 @@
       <c r="G11" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="R11" s="0" t="s">
         <v>76</v>
       </c>
     </row>
@@ -6621,16 +6620,16 @@
         <v>78</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="0" t="s">
         <v>81</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6647,10 +6646,10 @@
       <c r="E13" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="R13" s="0" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6666,19 +6665,19 @@
         <v>88</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="0" t="s">
         <v>89</v>
       </c>
+      <c r="G14" s="0" t="s">
+        <v>90</v>
+      </c>
       <c r="H14" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="M14" s="0" t="s">
         <v>92</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6693,16 +6692,16 @@
         <v>94</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="M15" s="0" t="s">
         <v>97</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6719,16 +6718,16 @@
       <c r="E16" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="J16" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="M16" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="R16" s="0" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6752,10 +6751,10 @@
       <c r="G17" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="M17" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="R17" s="0" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6773,13 +6772,13 @@
       <c r="E18" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="J18" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="R18" s="0" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6797,16 +6796,16 @@
       <c r="E19" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="J19" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="M19" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="N19" s="0" t="s">
+      <c r="R19" s="0" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6824,16 +6823,16 @@
       <c r="E20" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="J20" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="N20" s="0" t="s">
+      <c r="R20" s="0" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6849,18 +6848,18 @@
         <v>119</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="J21" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="M21" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="N21" s="0" t="s">
+      <c r="R21" s="0" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6876,18 +6875,18 @@
         <v>119</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="G22" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="M22" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="N22" s="0" t="s">
+      <c r="R22" s="0" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6911,10 +6910,10 @@
       <c r="G23" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="M23" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="N23" s="0" t="s">
+      <c r="R23" s="0" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6938,10 +6937,10 @@
       <c r="G24" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="M24" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="N24" s="0" t="s">
+      <c r="R24" s="0" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6957,16 +6956,16 @@
         <v>148</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="N25" s="0" t="s">
+      <c r="M25" s="0" t="s">
         <v>151</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6981,16 +6980,16 @@
         <v>153</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="N26" s="0" t="s">
+      <c r="M26" s="0" t="s">
         <v>156</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7013,10 +7012,10 @@
       <c r="G27" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="M27" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="N27" s="0" t="s">
+      <c r="R27" s="0" t="s">
         <v>163</v>
       </c>
     </row>
@@ -7032,18 +7031,18 @@
         <v>165</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="H28" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="N28" s="0" t="s">
+      <c r="M28" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="R28" s="0" t="s">
         <v>139</v>
       </c>
     </row>
@@ -7059,16 +7058,16 @@
         <v>170</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="G29" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="N29" s="0" t="s">
+      <c r="M29" s="0" t="s">
         <v>173</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7083,19 +7082,19 @@
         <v>175</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="H30" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="N30" s="0" t="s">
+      <c r="M30" s="0" t="s">
         <v>179</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7110,19 +7109,19 @@
         <v>181</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="H31" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="K31" s="0" t="s">
+      <c r="J31" s="0" t="s">
         <v>185</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7137,19 +7136,19 @@
         <v>187</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="H32" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="N32" s="0" t="s">
+      <c r="M32" s="0" t="s">
         <v>191</v>
+      </c>
+      <c r="R32" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7166,13 +7165,13 @@
       <c r="E33" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="G33" s="0" t="s">
         <v>195</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="R33" s="0" t="s">
         <v>197</v>
       </c>
     </row>
@@ -7190,10 +7189,10 @@
       <c r="E34" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="G34" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="R34" s="0" t="s">
         <v>202</v>
       </c>
     </row>
@@ -7211,10 +7210,10 @@
       <c r="E35" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="G35" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="R35" s="0" t="s">
         <v>207</v>
       </c>
     </row>
@@ -7230,13 +7229,13 @@
         <v>209</v>
       </c>
       <c r="E36" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R36" s="0" t="s">
         <v>210</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7253,10 +7252,10 @@
       <c r="E37" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="G37" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="R37" s="0" t="s">
         <v>215</v>
       </c>
     </row>
@@ -7280,7 +7279,7 @@
       <c r="G38" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="R38" s="0" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7304,10 +7303,10 @@
       <c r="G39" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="J39" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="K39" s="0" t="s">
+      <c r="R39" s="0" t="s">
         <v>228</v>
       </c>
     </row>
@@ -7331,10 +7330,10 @@
       <c r="G40" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="J40" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="K40" s="0" t="s">
+      <c r="R40" s="0" t="s">
         <v>228</v>
       </c>
     </row>
@@ -7350,19 +7349,19 @@
         <v>232</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="H41" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K41" s="0" t="s">
+      <c r="J41" s="0" t="s">
         <v>236</v>
+      </c>
+      <c r="R41" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7377,19 +7376,19 @@
         <v>232</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>224</v>
+        <v>51</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>51</v>
+        <v>238</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="H42" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="K42" s="0" t="s">
+      <c r="J42" s="0" t="s">
         <v>239</v>
+      </c>
+      <c r="R42" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7404,18 +7403,18 @@
         <v>241</v>
       </c>
       <c r="E43" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43" s="0" t="s">
         <v>242</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>225</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="J43" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="K43" s="0" t="s">
+      <c r="R43" s="0" t="s">
         <v>245</v>
       </c>
     </row>
@@ -7431,19 +7430,19 @@
         <v>247</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="H44" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="K44" s="0" t="s">
+      <c r="J44" s="0" t="s">
         <v>250</v>
+      </c>
+      <c r="R44" s="0" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7460,13 +7459,13 @@
       <c r="E45" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="G45" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="M45" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="N45" s="0" t="s">
+      <c r="R45" s="0" t="s">
         <v>256</v>
       </c>
     </row>
@@ -7482,16 +7481,16 @@
         <v>258</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="F46" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="G46" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="N46" s="0" t="s">
+      <c r="M46" s="0" t="s">
         <v>261</v>
+      </c>
+      <c r="R46" s="0" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7506,13 +7505,13 @@
         <v>263</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="F47" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="G47" s="0" t="s">
         <v>265</v>
+      </c>
+      <c r="R47" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7529,13 +7528,13 @@
       <c r="E48" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="G48" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="M48" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="N48" s="0" t="s">
+      <c r="R48" s="0" t="s">
         <v>271</v>
       </c>
     </row>
@@ -7551,16 +7550,16 @@
         <v>273</v>
       </c>
       <c r="E49" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R49" s="0" t="s">
         <v>274</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="N49" s="0" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7575,16 +7574,16 @@
         <v>276</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="F50" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="H50" s="0" t="s">
+      <c r="G50" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="N50" s="0" t="s">
+      <c r="M50" s="0" t="s">
         <v>279</v>
+      </c>
+      <c r="R50" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7601,10 +7600,10 @@
       <c r="E51" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="G51" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="H51" s="0" t="s">
+      <c r="R51" s="0" t="s">
         <v>284</v>
       </c>
     </row>
@@ -7622,10 +7621,10 @@
       <c r="E52" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="G52" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="H52" s="0" t="s">
+      <c r="R52" s="0" t="s">
         <v>289</v>
       </c>
     </row>
@@ -7643,11 +7642,11 @@
       <c r="E53" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F53" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="H53" s="0" t="s">
+      <c r="G53" s="0" t="s">
         <v>292</v>
+      </c>
+      <c r="R53" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7662,16 +7661,16 @@
         <v>294</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="F54" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="G54" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="N54" s="0" t="s">
+      <c r="M54" s="0" t="s">
         <v>297</v>
+      </c>
+      <c r="R54" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7685,10 +7684,10 @@
       <c r="C55" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="G55" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="H55" s="0" t="s">
+      <c r="R55" s="0" t="s">
         <v>301</v>
       </c>
     </row>
@@ -7706,13 +7705,13 @@
       <c r="E56" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="G56" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="H56" s="0" t="s">
+      <c r="M56" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="N56" s="0" t="s">
+      <c r="R56" s="0" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7728,16 +7727,16 @@
         <v>309</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F57" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="H57" s="0" t="s">
+      <c r="G57" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="K57" s="0" t="s">
+      <c r="J57" s="0" t="s">
         <v>312</v>
+      </c>
+      <c r="R57" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7752,16 +7751,16 @@
         <v>314</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F58" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="H58" s="0" t="s">
+      <c r="G58" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="K58" s="0" t="s">
+      <c r="J58" s="0" t="s">
         <v>317</v>
+      </c>
+      <c r="R58" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7778,13 +7777,13 @@
       <c r="E59" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="G59" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="H59" s="0" t="s">
+      <c r="M59" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="N59" s="0" t="s">
+      <c r="R59" s="0" t="s">
         <v>323</v>
       </c>
     </row>
@@ -7800,16 +7799,16 @@
         <v>325</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F60" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="H60" s="0" t="s">
+      <c r="G60" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="N60" s="0" t="s">
+      <c r="M60" s="0" t="s">
         <v>191</v>
+      </c>
+      <c r="R60" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7824,16 +7823,16 @@
         <v>329</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H61" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G61" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="K61" s="0" t="s">
+      <c r="J61" s="0" t="s">
         <v>331</v>
+      </c>
+      <c r="R61" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7848,13 +7847,13 @@
         <v>333</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F62" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="H62" s="0" t="s">
+      <c r="G62" s="0" t="s">
         <v>334</v>
+      </c>
+      <c r="R62" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7869,13 +7868,13 @@
         <v>335</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="F63" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="H63" s="0" t="s">
+      <c r="G63" s="0" t="s">
         <v>265</v>
+      </c>
+      <c r="R63" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7890,13 +7889,13 @@
         <v>337</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F64" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="H64" s="0" t="s">
+      <c r="G64" s="0" t="s">
         <v>339</v>
+      </c>
+      <c r="R64" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7911,13 +7910,13 @@
         <v>341</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F65" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="H65" s="0" t="s">
+      <c r="G65" s="0" t="s">
         <v>343</v>
+      </c>
+      <c r="R65" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7934,11 +7933,11 @@
       <c r="E66" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="G66" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="R66" s="0" t="s">
         <v>347</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7953,13 +7952,13 @@
         <v>349</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F67" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="H67" s="0" t="s">
+      <c r="G67" s="0" t="s">
         <v>351</v>
+      </c>
+      <c r="R67" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7974,16 +7973,16 @@
         <v>353</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F68" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="H68" s="0" t="s">
+      <c r="G68" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="K68" s="0" t="s">
+      <c r="J68" s="0" t="s">
         <v>356</v>
+      </c>
+      <c r="R68" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8000,13 +7999,13 @@
       <c r="E69" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="G69" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="H69" s="0" t="s">
+      <c r="J69" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="K69" s="0" t="s">
+      <c r="R69" s="0" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8030,10 +8029,10 @@
       <c r="G70" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="H70" s="0" t="s">
+      <c r="J70" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="K70" s="0" t="s">
+      <c r="R70" s="0" t="s">
         <v>368</v>
       </c>
     </row>
@@ -8057,10 +8056,10 @@
       <c r="G71" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="H71" s="0" t="s">
+      <c r="J71" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="K71" s="0" t="s">
+      <c r="R71" s="0" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8076,19 +8075,19 @@
         <v>358</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="H72" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="K72" s="0" t="s">
+      <c r="J72" s="0" t="s">
         <v>379</v>
+      </c>
+      <c r="R72" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8103,22 +8102,22 @@
         <v>358</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="H73" s="0" t="s">
         <v>383</v>
       </c>
+      <c r="J73" s="0" t="s">
+        <v>384</v>
+      </c>
       <c r="K73" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="L73" s="0" t="s">
         <v>385</v>
+      </c>
+      <c r="R73" s="0" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8133,10 +8132,10 @@
         <v>358</v>
       </c>
       <c r="E74" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" s="0" t="s">
         <v>387</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>388</v>
@@ -8150,7 +8149,7 @@
       <c r="J74" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="K74" s="0" t="s">
+      <c r="R74" s="0" t="s">
         <v>392</v>
       </c>
     </row>
@@ -8166,19 +8165,19 @@
         <v>358</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>40</v>
+        <v>394</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="H75" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="K75" s="0" t="s">
+      <c r="J75" s="0" t="s">
         <v>397</v>
+      </c>
+      <c r="R75" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8193,19 +8192,19 @@
         <v>358</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="H76" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="K76" s="0" t="s">
+      <c r="J76" s="0" t="s">
         <v>402</v>
+      </c>
+      <c r="R76" s="0" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8220,28 +8219,28 @@
         <v>358</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="L77" s="0" t="s">
         <v>410</v>
+      </c>
+      <c r="R77" s="0" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8256,31 +8255,31 @@
         <v>358</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="M78" s="0" t="s">
         <v>419</v>
+      </c>
+      <c r="R78" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8303,10 +8302,10 @@
       <c r="G79" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="H79" s="0" t="s">
+      <c r="J79" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="K79" s="0" t="s">
+      <c r="R79" s="0" t="s">
         <v>425</v>
       </c>
     </row>
@@ -8322,16 +8321,16 @@
         <v>358</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>364</v>
+        <v>287</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>288</v>
+        <v>427</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="H80" s="0" t="s">
         <v>428</v>
+      </c>
+      <c r="R80" s="0" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8352,12 +8351,12 @@
         <v>430</v>
       </c>
       <c r="G81" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="J81" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="H81" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K81" s="0" t="s">
+      <c r="R81" s="0" t="s">
         <v>432</v>
       </c>
     </row>
@@ -8373,18 +8372,18 @@
         <v>358</v>
       </c>
       <c r="E82" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F82" s="0" t="s">
         <v>434</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>254</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="H82" s="0" t="s">
+      <c r="J82" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="K82" s="0" t="s">
+      <c r="R82" s="0" t="s">
         <v>437</v>
       </c>
     </row>
@@ -8408,10 +8407,10 @@
       <c r="G83" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="H83" s="0" t="s">
+      <c r="J83" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="K83" s="0" t="s">
+      <c r="R83" s="0" t="s">
         <v>443</v>
       </c>
     </row>
@@ -8438,13 +8437,13 @@
       <c r="H84" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="I84" s="0" t="s">
+      <c r="J84" s="0" t="s">
         <v>449</v>
       </c>
       <c r="K84" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="L84" s="0" t="s">
+      <c r="R84" s="0" t="s">
         <v>451</v>
       </c>
     </row>
@@ -8462,10 +8461,10 @@
       <c r="E85" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="F85" s="0" t="s">
+      <c r="G85" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="H85" s="0" t="s">
+      <c r="R85" s="0" t="s">
         <v>455</v>
       </c>
     </row>
@@ -8481,24 +8480,24 @@
         <v>358</v>
       </c>
       <c r="E86" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="F86" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="F86" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="G86" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="H86" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="H86" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="I86" s="0" t="s">
+      <c r="J86" s="0" t="s">
         <v>459</v>
       </c>
       <c r="K86" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="L86" s="0" t="s">
+      <c r="R86" s="0" t="s">
         <v>461</v>
       </c>
     </row>
@@ -8514,19 +8513,19 @@
         <v>358</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>310</v>
+        <v>463</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="H87" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="K87" s="0" t="s">
+      <c r="J87" s="0" t="s">
         <v>465</v>
+      </c>
+      <c r="R87" s="0" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8541,22 +8540,22 @@
         <v>358</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>264</v>
+        <v>467</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="H88" s="0" t="s">
         <v>265</v>
       </c>
+      <c r="J88" s="0" t="s">
+        <v>468</v>
+      </c>
       <c r="K88" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="L88" s="0" t="s">
         <v>469</v>
+      </c>
+      <c r="R88" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8591,7 +8590,7 @@
       <c r="K89" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="L89" s="0" t="s">
+      <c r="R89" s="0" t="s">
         <v>478</v>
       </c>
     </row>
@@ -8607,19 +8606,19 @@
         <v>358</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>364</v>
+        <v>480</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="H90" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="K90" s="0" t="s">
+      <c r="J90" s="0" t="s">
         <v>483</v>
+      </c>
+      <c r="R90" s="0" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8642,10 +8641,10 @@
       <c r="G91" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="H91" s="0" t="s">
+      <c r="J91" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="K91" s="0" t="s">
+      <c r="R91" s="0" t="s">
         <v>489</v>
       </c>
     </row>
@@ -8661,19 +8660,19 @@
         <v>358</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="H92" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="K92" s="0" t="s">
+      <c r="J92" s="0" t="s">
         <v>494</v>
+      </c>
+      <c r="R92" s="0" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8688,25 +8687,25 @@
         <v>358</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>27</v>
+        <v>496</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="I93" s="0" t="s">
         <v>499</v>
       </c>
+      <c r="J93" s="0" t="s">
+        <v>500</v>
+      </c>
       <c r="K93" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="L93" s="0" t="s">
         <v>501</v>
+      </c>
+      <c r="R93" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8721,19 +8720,19 @@
         <v>358</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>300</v>
+        <v>503</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="H94" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="K94" s="0" t="s">
+      <c r="J94" s="0" t="s">
         <v>506</v>
+      </c>
+      <c r="R94" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8747,17 +8746,17 @@
       <c r="C95" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="E95" s="0" t="s">
-        <v>364</v>
+      <c r="F95" s="0" t="s">
+        <v>219</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="H95" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="K95" s="0" t="s">
+      <c r="J95" s="0" t="s">
         <v>509</v>
+      </c>
+      <c r="R95" s="0" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8772,25 +8771,25 @@
         <v>358</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>364</v>
+        <v>511</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="I96" s="0" t="s">
         <v>514</v>
       </c>
+      <c r="J96" s="0" t="s">
+        <v>515</v>
+      </c>
       <c r="K96" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="L96" s="0" t="s">
         <v>516</v>
+      </c>
+      <c r="R96" s="0" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8813,10 +8812,10 @@
       <c r="G97" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="H97" s="0" t="s">
+      <c r="J97" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="K97" s="0" t="s">
+      <c r="R97" s="0" t="s">
         <v>522</v>
       </c>
     </row>
@@ -8832,19 +8831,19 @@
         <v>358</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>73</v>
+        <v>524</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="H98" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="K98" s="0" t="s">
+      <c r="J98" s="0" t="s">
         <v>527</v>
+      </c>
+      <c r="R98" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8859,19 +8858,19 @@
         <v>358</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="H99" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="K99" s="0" t="s">
+      <c r="J99" s="0" t="s">
         <v>532</v>
+      </c>
+      <c r="R99" s="0" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8886,19 +8885,19 @@
         <v>358</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>120</v>
+        <v>224</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>225</v>
+        <v>534</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="H100" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="K100" s="0" t="s">
+      <c r="J100" s="0" t="s">
         <v>536</v>
+      </c>
+      <c r="R100" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8913,19 +8912,19 @@
         <v>358</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>364</v>
+        <v>287</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>288</v>
+        <v>538</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="H101" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="K101" s="0" t="s">
+      <c r="J101" s="0" t="s">
         <v>540</v>
+      </c>
+      <c r="R101" s="0" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8940,22 +8939,22 @@
         <v>358</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>364</v>
+        <v>135</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>136</v>
+        <v>542</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="H102" s="0" t="s">
         <v>543</v>
       </c>
+      <c r="J102" s="0" t="s">
+        <v>544</v>
+      </c>
       <c r="K102" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="L102" s="0" t="s">
         <v>545</v>
+      </c>
+      <c r="R102" s="0" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8973,16 +8972,16 @@
         <v>84</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>85</v>
+        <v>547</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="H103" s="0" t="s">
         <v>548</v>
       </c>
-      <c r="K103" s="0" t="s">
+      <c r="J103" s="0" t="s">
         <v>549</v>
+      </c>
+      <c r="R103" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8997,19 +8996,19 @@
         <v>358</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>40</v>
+        <v>551</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="H104" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="K104" s="0" t="s">
+      <c r="J104" s="0" t="s">
         <v>554</v>
+      </c>
+      <c r="R104" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9024,18 +9023,18 @@
         <v>358</v>
       </c>
       <c r="E105" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="F105" s="0" t="s">
         <v>556</v>
-      </c>
-      <c r="F105" s="0" t="s">
-        <v>305</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="H105" s="0" t="s">
+      <c r="J105" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="K105" s="0" t="s">
+      <c r="R105" s="0" t="s">
         <v>559</v>
       </c>
     </row>
@@ -9059,10 +9058,10 @@
       <c r="G106" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="H106" s="0" t="s">
+      <c r="J106" s="0" t="s">
         <v>564</v>
       </c>
-      <c r="K106" s="0" t="s">
+      <c r="R106" s="0" t="s">
         <v>565</v>
       </c>
     </row>
@@ -9086,7 +9085,7 @@
       <c r="G107" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="H107" s="0" t="s">
+      <c r="J107" s="0" t="s">
         <v>570</v>
       </c>
       <c r="K107" s="0" t="s">
@@ -9095,7 +9094,7 @@
       <c r="L107" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="M107" s="0" t="s">
+      <c r="R107" s="0" t="s">
         <v>573</v>
       </c>
     </row>
@@ -9119,7 +9118,7 @@
       <c r="G108" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="H108" s="0" t="s">
+      <c r="J108" s="0" t="s">
         <v>578</v>
       </c>
       <c r="K108" s="0" t="s">
@@ -9128,7 +9127,7 @@
       <c r="L108" s="0" t="s">
         <v>580</v>
       </c>
-      <c r="M108" s="0" t="s">
+      <c r="R108" s="0" t="s">
         <v>581</v>
       </c>
     </row>
@@ -9144,25 +9143,25 @@
         <v>358</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>338</v>
+        <v>583</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>583</v>
+        <v>339</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="I109" s="0" t="s">
         <v>584</v>
       </c>
+      <c r="J109" s="0" t="s">
+        <v>585</v>
+      </c>
       <c r="K109" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="L109" s="0" t="s">
         <v>586</v>
+      </c>
+      <c r="R109" s="0" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9177,19 +9176,19 @@
         <v>358</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>359</v>
+        <v>588</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="H110" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="K110" s="0" t="s">
+      <c r="J110" s="0" t="s">
         <v>591</v>
+      </c>
+      <c r="R110" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9204,19 +9203,19 @@
         <v>358</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>364</v>
+        <v>593</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>594</v>
-      </c>
-      <c r="H111" s="0" t="s">
         <v>595</v>
       </c>
-      <c r="K111" s="0" t="s">
+      <c r="J111" s="0" t="s">
         <v>596</v>
+      </c>
+      <c r="R111" s="0" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9231,16 +9230,16 @@
         <v>358</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>561</v>
+        <v>598</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>598</v>
-      </c>
-      <c r="G112" s="0" t="s">
         <v>599</v>
       </c>
-      <c r="K112" s="0" t="s">
+      <c r="J112" s="0" t="s">
         <v>600</v>
+      </c>
+      <c r="R112" s="0" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9255,19 +9254,19 @@
         <v>358</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>364</v>
+        <v>602</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>603</v>
-      </c>
-      <c r="H113" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="K113" s="0" t="s">
+      <c r="J113" s="0" t="s">
         <v>605</v>
+      </c>
+      <c r="R113" s="0" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9282,19 +9281,19 @@
         <v>358</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>376</v>
+        <v>607</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>607</v>
-      </c>
-      <c r="H114" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="K114" s="0" t="s">
+      <c r="J114" s="0" t="s">
         <v>608</v>
+      </c>
+      <c r="R114" s="0" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9317,13 +9316,13 @@
       <c r="G115" s="0" t="s">
         <v>612</v>
       </c>
-      <c r="H115" s="0" t="s">
+      <c r="J115" s="0" t="s">
         <v>613</v>
       </c>
       <c r="K115" s="0" t="s">
         <v>614</v>
       </c>
-      <c r="L115" s="0" t="s">
+      <c r="R115" s="0" t="s">
         <v>615</v>
       </c>
     </row>
@@ -9339,19 +9338,19 @@
         <v>358</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>364</v>
+        <v>617</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="H116" s="0" t="s">
         <v>619</v>
       </c>
-      <c r="K116" s="0" t="s">
+      <c r="J116" s="0" t="s">
         <v>331</v>
+      </c>
+      <c r="R116" s="0" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9374,10 +9373,10 @@
       <c r="G117" s="0" t="s">
         <v>623</v>
       </c>
-      <c r="H117" s="0" t="s">
+      <c r="J117" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="K117" s="0" t="s">
+      <c r="R117" s="0" t="s">
         <v>625</v>
       </c>
     </row>
@@ -9393,19 +9392,19 @@
         <v>358</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>300</v>
+        <v>627</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="H118" s="0" t="s">
         <v>629</v>
       </c>
-      <c r="K118" s="0" t="s">
+      <c r="J118" s="0" t="s">
         <v>630</v>
+      </c>
+      <c r="R118" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9420,18 +9419,18 @@
         <v>358</v>
       </c>
       <c r="E119" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F119" s="0" t="s">
         <v>632</v>
-      </c>
-      <c r="F119" s="0" t="s">
-        <v>225</v>
       </c>
       <c r="G119" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="H119" s="0" t="s">
+      <c r="J119" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="K119" s="0" t="s">
+      <c r="R119" s="0" t="s">
         <v>635</v>
       </c>
     </row>
@@ -9447,25 +9446,25 @@
         <v>358</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="I120" s="0" t="s">
         <v>640</v>
       </c>
+      <c r="J120" s="0" t="s">
+        <v>641</v>
+      </c>
       <c r="K120" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="L120" s="0" t="s">
         <v>642</v>
+      </c>
+      <c r="R120" s="0" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9480,13 +9479,13 @@
         <v>644</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="F121" s="0" t="s">
         <v>645</v>
       </c>
-      <c r="H121" s="0" t="s">
+      <c r="G121" s="0" t="s">
         <v>646</v>
+      </c>
+      <c r="R121" s="0" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9501,16 +9500,16 @@
         <v>647</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="F122" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="H122" s="0" t="s">
+      <c r="G122" s="0" t="s">
         <v>648</v>
       </c>
-      <c r="N122" s="0" t="s">
+      <c r="M122" s="0" t="s">
         <v>649</v>
+      </c>
+      <c r="R122" s="0" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9525,16 +9524,16 @@
         <v>651</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F123" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="H123" s="0" t="s">
+      <c r="G123" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="K123" s="0" t="s">
+      <c r="J123" s="0" t="s">
         <v>654</v>
+      </c>
+      <c r="R123" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9549,16 +9548,16 @@
         <v>656</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F124" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H124" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N124" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G124" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M124" s="0" t="s">
         <v>657</v>
+      </c>
+      <c r="R124" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9573,16 +9572,16 @@
         <v>659</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F125" s="0" t="s">
         <v>660</v>
       </c>
-      <c r="H125" s="0" t="s">
+      <c r="G125" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="N125" s="0" t="s">
+      <c r="M125" s="0" t="s">
         <v>662</v>
+      </c>
+      <c r="R125" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9597,16 +9596,16 @@
         <v>664</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F126" s="0" t="s">
         <v>665</v>
       </c>
-      <c r="H126" s="0" t="s">
+      <c r="G126" s="0" t="s">
         <v>666</v>
       </c>
-      <c r="N126" s="0" t="s">
+      <c r="M126" s="0" t="s">
         <v>667</v>
+      </c>
+      <c r="R126" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9621,16 +9620,16 @@
         <v>669</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F127" s="0" t="s">
         <v>670</v>
       </c>
-      <c r="H127" s="0" t="s">
+      <c r="G127" s="0" t="s">
         <v>671</v>
       </c>
-      <c r="N127" s="0" t="s">
+      <c r="M127" s="0" t="s">
         <v>672</v>
+      </c>
+      <c r="R127" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9645,16 +9644,16 @@
         <v>674</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F128" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="H128" s="0" t="s">
+      <c r="G128" s="0" t="s">
         <v>676</v>
       </c>
-      <c r="K128" s="0" t="s">
+      <c r="J128" s="0" t="s">
         <v>677</v>
+      </c>
+      <c r="R128" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9669,13 +9668,13 @@
         <v>679</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F129" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="H129" s="0" t="s">
+      <c r="G129" s="0" t="s">
         <v>680</v>
+      </c>
+      <c r="R129" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9690,13 +9689,13 @@
         <v>682</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F130" s="0" t="s">
         <v>683</v>
       </c>
-      <c r="H130" s="0" t="s">
+      <c r="G130" s="0" t="s">
         <v>684</v>
+      </c>
+      <c r="R130" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9711,16 +9710,16 @@
         <v>686</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F131" s="0" t="s">
         <v>687</v>
       </c>
-      <c r="H131" s="0" t="s">
+      <c r="G131" s="0" t="s">
         <v>688</v>
       </c>
-      <c r="N131" s="0" t="s">
+      <c r="M131" s="0" t="s">
         <v>97</v>
+      </c>
+      <c r="R131" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9735,16 +9734,16 @@
         <v>690</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F132" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="H132" s="0" t="s">
+      <c r="G132" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="N132" s="0" t="s">
+      <c r="M132" s="0" t="s">
         <v>692</v>
+      </c>
+      <c r="R132" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9759,16 +9758,16 @@
         <v>694</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F133" s="0" t="s">
         <v>412</v>
       </c>
+      <c r="G133" s="0" t="s">
+        <v>695</v>
+      </c>
       <c r="H133" s="0" t="s">
-        <v>695</v>
-      </c>
-      <c r="I133" s="0" t="s">
         <v>696</v>
+      </c>
+      <c r="R133" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9783,19 +9782,19 @@
         <v>698</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F134" s="0" t="s">
         <v>699</v>
       </c>
+      <c r="G134" s="0" t="s">
+        <v>700</v>
+      </c>
       <c r="H134" s="0" t="s">
-        <v>700</v>
-      </c>
-      <c r="I134" s="0" t="s">
         <v>701</v>
       </c>
-      <c r="N134" s="0" t="s">
+      <c r="M134" s="0" t="s">
         <v>97</v>
+      </c>
+      <c r="R134" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9810,16 +9809,16 @@
         <v>703</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F135" s="0" t="s">
         <v>704</v>
       </c>
-      <c r="H135" s="0" t="s">
+      <c r="G135" s="0" t="s">
         <v>705</v>
       </c>
-      <c r="N135" s="0" t="s">
+      <c r="M135" s="0" t="s">
         <v>97</v>
+      </c>
+      <c r="R135" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9834,13 +9833,13 @@
         <v>707</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F136" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="H136" s="0" t="s">
+      <c r="G136" s="0" t="s">
         <v>709</v>
+      </c>
+      <c r="R136" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9855,16 +9854,16 @@
         <v>711</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F137" s="0" t="s">
         <v>712</v>
       </c>
-      <c r="H137" s="0" t="s">
+      <c r="G137" s="0" t="s">
         <v>713</v>
       </c>
-      <c r="N137" s="0" t="s">
+      <c r="M137" s="0" t="s">
         <v>97</v>
+      </c>
+      <c r="R137" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9879,13 +9878,13 @@
         <v>715</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F138" s="0" t="s">
         <v>716</v>
       </c>
-      <c r="H138" s="0" t="s">
+      <c r="G138" s="0" t="s">
         <v>717</v>
+      </c>
+      <c r="R138" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9900,19 +9899,19 @@
         <v>719</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F139" s="0" t="s">
         <v>720</v>
       </c>
+      <c r="G139" s="0" t="s">
+        <v>721</v>
+      </c>
       <c r="H139" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="I139" s="0" t="s">
         <v>700</v>
       </c>
-      <c r="N139" s="0" t="s">
+      <c r="M139" s="0" t="s">
         <v>722</v>
+      </c>
+      <c r="R139" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9927,13 +9926,13 @@
         <v>724</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F140" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="H140" s="0" t="s">
-        <v>255</v>
+      <c r="G140" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="R140" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9948,13 +9947,13 @@
         <v>726</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F141" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="H141" s="0" t="s">
+      <c r="G141" s="0" t="s">
         <v>727</v>
+      </c>
+      <c r="R141" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9969,13 +9968,13 @@
         <v>729</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F142" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="H142" s="0" t="s">
+      <c r="G142" s="0" t="s">
         <v>680</v>
+      </c>
+      <c r="R142" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9990,13 +9989,13 @@
         <v>731</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F143" s="0" t="s">
         <v>732</v>
       </c>
-      <c r="H143" s="0" t="s">
+      <c r="G143" s="0" t="s">
         <v>733</v>
+      </c>
+      <c r="R143" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10011,13 +10010,13 @@
         <v>735</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F144" s="0" t="s">
         <v>736</v>
       </c>
-      <c r="H144" s="0" t="s">
+      <c r="G144" s="0" t="s">
         <v>737</v>
+      </c>
+      <c r="R144" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10032,13 +10031,13 @@
         <v>739</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F145" s="0" t="s">
         <v>740</v>
       </c>
-      <c r="H145" s="0" t="s">
+      <c r="G145" s="0" t="s">
         <v>741</v>
+      </c>
+      <c r="R145" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10053,13 +10052,13 @@
         <v>743</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F146" s="0" t="s">
         <v>744</v>
       </c>
-      <c r="H146" s="0" t="s">
+      <c r="G146" s="0" t="s">
         <v>745</v>
+      </c>
+      <c r="R146" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10074,13 +10073,13 @@
         <v>746</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F147" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="H147" s="0" t="s">
+      <c r="G147" s="0" t="s">
         <v>671</v>
+      </c>
+      <c r="R147" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10095,13 +10094,13 @@
         <v>748</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F148" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="H148" s="0" t="s">
+      <c r="G148" s="0" t="s">
         <v>680</v>
+      </c>
+      <c r="R148" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10116,13 +10115,13 @@
         <v>739</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F149" s="0" t="s">
         <v>750</v>
       </c>
-      <c r="H149" s="0" t="s">
+      <c r="G149" s="0" t="s">
         <v>751</v>
+      </c>
+      <c r="R149" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10137,13 +10136,13 @@
         <v>753</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F150" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="H150" s="0" t="s">
+      <c r="G150" s="0" t="s">
         <v>754</v>
+      </c>
+      <c r="R150" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10158,13 +10157,13 @@
         <v>756</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F151" s="0" t="s">
         <v>716</v>
       </c>
-      <c r="H151" s="0" t="s">
+      <c r="G151" s="0" t="s">
         <v>757</v>
+      </c>
+      <c r="R151" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10179,13 +10178,13 @@
         <v>759</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F152" s="0" t="s">
         <v>760</v>
       </c>
-      <c r="H152" s="0" t="s">
+      <c r="G152" s="0" t="s">
         <v>761</v>
+      </c>
+      <c r="R152" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10200,13 +10199,13 @@
         <v>763</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F153" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="H153" s="0" t="s">
+      <c r="G153" s="0" t="s">
         <v>764</v>
+      </c>
+      <c r="R153" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10221,19 +10220,19 @@
         <v>766</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F154" s="0" t="s">
         <v>704</v>
       </c>
-      <c r="H154" s="0" t="s">
+      <c r="G154" s="0" t="s">
         <v>767</v>
       </c>
+      <c r="M154" s="1"/>
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
-      <c r="R154" s="1"/>
+      <c r="R154" s="0" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="str">
@@ -10247,13 +10246,13 @@
         <v>769</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F155" s="0" t="s">
         <v>770</v>
       </c>
-      <c r="H155" s="0" t="s">
+      <c r="G155" s="0" t="s">
         <v>771</v>
+      </c>
+      <c r="R155" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10268,13 +10267,13 @@
         <v>773</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F156" s="0" t="s">
         <v>774</v>
       </c>
-      <c r="H156" s="0" t="s">
+      <c r="G156" s="0" t="s">
         <v>775</v>
+      </c>
+      <c r="R156" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10289,13 +10288,13 @@
         <v>777</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F157" s="0" t="s">
         <v>778</v>
       </c>
-      <c r="H157" s="0" t="s">
+      <c r="G157" s="0" t="s">
         <v>779</v>
+      </c>
+      <c r="R157" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10310,13 +10309,13 @@
         <v>780</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F158" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H158" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G158" s="0" t="s">
         <v>781</v>
+      </c>
+      <c r="R158" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10331,13 +10330,13 @@
         <v>783</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F159" s="0" t="s">
         <v>784</v>
       </c>
-      <c r="H159" s="0" t="s">
+      <c r="G159" s="0" t="s">
         <v>785</v>
+      </c>
+      <c r="R159" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10352,13 +10351,13 @@
         <v>787</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F160" s="0" t="s">
         <v>788</v>
       </c>
-      <c r="H160" s="0" t="s">
+      <c r="G160" s="0" t="s">
         <v>789</v>
+      </c>
+      <c r="R160" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10373,13 +10372,13 @@
         <v>791</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F161" s="0" t="s">
         <v>792</v>
       </c>
-      <c r="H161" s="0" t="s">
+      <c r="G161" s="0" t="s">
         <v>700</v>
+      </c>
+      <c r="R161" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10394,16 +10393,16 @@
         <v>794</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F162" s="0" t="s">
         <v>795</v>
       </c>
-      <c r="H162" s="0" t="s">
+      <c r="G162" s="0" t="s">
         <v>796</v>
       </c>
-      <c r="K162" s="0" t="s">
+      <c r="J162" s="0" t="s">
         <v>797</v>
+      </c>
+      <c r="R162" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10418,16 +10417,16 @@
         <v>798</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F163" s="0" t="s">
         <v>799</v>
       </c>
-      <c r="H163" s="0" t="s">
+      <c r="G163" s="0" t="s">
         <v>800</v>
       </c>
-      <c r="N163" s="0" t="s">
+      <c r="M163" s="0" t="s">
         <v>801</v>
+      </c>
+      <c r="R163" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10442,13 +10441,13 @@
         <v>803</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F164" s="0" t="s">
         <v>804</v>
       </c>
-      <c r="H164" s="0" t="s">
+      <c r="G164" s="0" t="s">
         <v>805</v>
+      </c>
+      <c r="R164" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10463,13 +10462,13 @@
         <v>807</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F165" s="0" t="s">
         <v>808</v>
       </c>
-      <c r="H165" s="0" t="s">
+      <c r="G165" s="0" t="s">
         <v>809</v>
+      </c>
+      <c r="R165" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10484,16 +10483,16 @@
         <v>811</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F166" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="H166" s="0" t="s">
+      <c r="G166" s="0" t="s">
         <v>813</v>
       </c>
-      <c r="N166" s="0" t="s">
+      <c r="M166" s="0" t="s">
         <v>814</v>
+      </c>
+      <c r="R166" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10508,13 +10507,13 @@
         <v>816</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F167" s="0" t="s">
         <v>817</v>
       </c>
-      <c r="H167" s="0" t="s">
+      <c r="G167" s="0" t="s">
         <v>818</v>
+      </c>
+      <c r="R167" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10529,13 +10528,13 @@
         <v>820</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F168" s="0" t="s">
         <v>821</v>
       </c>
-      <c r="H168" s="0" t="s">
+      <c r="G168" s="0" t="s">
         <v>818</v>
+      </c>
+      <c r="R168" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10550,13 +10549,13 @@
         <v>823</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F169" s="0" t="s">
         <v>821</v>
       </c>
-      <c r="H169" s="0" t="s">
+      <c r="G169" s="0" t="s">
         <v>818</v>
+      </c>
+      <c r="R169" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10571,15 +10570,15 @@
         <v>824</v>
       </c>
       <c r="E170" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="G170" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="J170" s="0" t="s">
         <v>825</v>
       </c>
-      <c r="F170" s="0" t="s">
-        <v>736</v>
-      </c>
-      <c r="H170" s="0" t="s">
-        <v>737</v>
-      </c>
-      <c r="K170" s="0" t="s">
+      <c r="R170" s="0" t="s">
         <v>826</v>
       </c>
     </row>
@@ -10595,13 +10594,13 @@
         <v>828</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>825</v>
-      </c>
-      <c r="F171" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="H171" s="0" t="s">
+      <c r="G171" s="0" t="s">
         <v>830</v>
+      </c>
+      <c r="R171" s="0" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10616,13 +10615,13 @@
         <v>832</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>825</v>
-      </c>
-      <c r="F172" s="0" t="s">
         <v>833</v>
       </c>
-      <c r="H172" s="0" t="s">
+      <c r="G172" s="0" t="s">
         <v>834</v>
+      </c>
+      <c r="R172" s="0" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10637,16 +10636,16 @@
         <v>836</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>825</v>
-      </c>
-      <c r="F173" s="0" t="s">
         <v>837</v>
       </c>
-      <c r="H173" s="0" t="s">
+      <c r="G173" s="0" t="s">
         <v>838</v>
       </c>
-      <c r="K173" s="0" t="s">
+      <c r="J173" s="0" t="s">
         <v>839</v>
+      </c>
+      <c r="R173" s="0" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10661,16 +10660,16 @@
         <v>841</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="F174" s="0" t="s">
         <v>842</v>
       </c>
-      <c r="H174" s="0" t="s">
+      <c r="G174" s="0" t="s">
         <v>843</v>
       </c>
-      <c r="K174" s="0" t="s">
+      <c r="J174" s="0" t="s">
         <v>844</v>
+      </c>
+      <c r="R174" s="0" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10685,19 +10684,19 @@
         <v>846</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="F175" s="0" t="s">
         <v>847</v>
       </c>
+      <c r="G175" s="0" t="s">
+        <v>848</v>
+      </c>
       <c r="H175" s="0" t="s">
-        <v>848</v>
-      </c>
-      <c r="I175" s="0" t="s">
         <v>849</v>
       </c>
-      <c r="N175" s="0" t="s">
+      <c r="M175" s="0" t="s">
         <v>850</v>
+      </c>
+      <c r="R175" s="0" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10712,13 +10711,13 @@
         <v>852</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="F176" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="H176" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="G176" s="0" t="s">
         <v>853</v>
+      </c>
+      <c r="R176" s="0" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10733,16 +10732,16 @@
         <v>855</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="F177" s="0" t="s">
         <v>856</v>
       </c>
-      <c r="H177" s="0" t="s">
+      <c r="G177" s="0" t="s">
         <v>857</v>
       </c>
-      <c r="N177" s="0" t="s">
+      <c r="M177" s="0" t="s">
         <v>858</v>
+      </c>
+      <c r="R177" s="0" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10757,16 +10756,16 @@
         <v>860</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="F178" s="0" t="s">
         <v>861</v>
       </c>
-      <c r="H178" s="0" t="s">
+      <c r="G178" s="0" t="s">
         <v>862</v>
       </c>
-      <c r="N178" s="0" t="s">
+      <c r="M178" s="0" t="s">
         <v>863</v>
+      </c>
+      <c r="R178" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10781,19 +10780,19 @@
         <v>864</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>224</v>
+        <v>445</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>446</v>
+        <v>865</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>865</v>
-      </c>
-      <c r="H179" s="0" t="s">
         <v>866</v>
       </c>
-      <c r="K179" s="0" t="s">
+      <c r="J179" s="0" t="s">
         <v>867</v>
+      </c>
+      <c r="R179" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10808,16 +10807,16 @@
         <v>869</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="F180" s="0" t="s">
         <v>870</v>
       </c>
-      <c r="H180" s="0" t="s">
+      <c r="G180" s="0" t="s">
         <v>871</v>
       </c>
-      <c r="N180" s="0" t="s">
+      <c r="M180" s="0" t="s">
         <v>872</v>
+      </c>
+      <c r="R180" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10832,16 +10831,16 @@
         <v>874</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="F181" s="0" t="s">
         <v>875</v>
       </c>
-      <c r="H181" s="0" t="s">
+      <c r="G181" s="0" t="s">
         <v>876</v>
       </c>
-      <c r="N181" s="0" t="s">
+      <c r="M181" s="0" t="s">
         <v>877</v>
+      </c>
+      <c r="R181" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10859,16 +10858,16 @@
         <v>224</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>225</v>
+        <v>534</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="H182" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="K182" s="0" t="s">
+      <c r="J182" s="0" t="s">
         <v>880</v>
+      </c>
+      <c r="R182" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10883,16 +10882,16 @@
         <v>882</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="F183" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="H183" s="0" t="s">
+      <c r="G183" s="0" t="s">
         <v>883</v>
       </c>
-      <c r="N183" s="0" t="s">
+      <c r="M183" s="0" t="s">
         <v>884</v>
+      </c>
+      <c r="R183" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10907,16 +10906,16 @@
         <v>886</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="F184" s="0" t="s">
         <v>887</v>
       </c>
-      <c r="H184" s="0" t="s">
+      <c r="G184" s="0" t="s">
         <v>888</v>
       </c>
-      <c r="K184" s="0" t="s">
+      <c r="J184" s="0" t="s">
         <v>889</v>
+      </c>
+      <c r="R184" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10931,13 +10930,13 @@
         <v>891</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="F185" s="0" t="s">
         <v>892</v>
       </c>
-      <c r="H185" s="0" t="s">
+      <c r="G185" s="0" t="s">
         <v>893</v>
+      </c>
+      <c r="R185" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10952,13 +10951,13 @@
         <v>894</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="F186" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="H186" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="G186" s="0" t="s">
         <v>866</v>
+      </c>
+      <c r="R186" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10973,13 +10972,13 @@
         <v>896</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="F187" s="0" t="s">
         <v>875</v>
       </c>
-      <c r="H187" s="0" t="s">
+      <c r="G187" s="0" t="s">
         <v>897</v>
+      </c>
+      <c r="R187" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10994,16 +10993,16 @@
         <v>899</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="F188" s="0" t="s">
         <v>900</v>
       </c>
-      <c r="H188" s="0" t="s">
+      <c r="G188" s="0" t="s">
         <v>901</v>
       </c>
-      <c r="N188" s="0" t="s">
+      <c r="M188" s="0" t="s">
         <v>902</v>
+      </c>
+      <c r="R188" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11018,16 +11017,16 @@
         <v>904</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="F189" s="0" t="s">
         <v>905</v>
       </c>
-      <c r="H189" s="0" t="s">
+      <c r="G189" s="0" t="s">
         <v>906</v>
       </c>
-      <c r="N189" s="0" t="s">
+      <c r="M189" s="0" t="s">
         <v>907</v>
+      </c>
+      <c r="R189" s="0" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11042,16 +11041,16 @@
         <v>909</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="F190" s="0" t="s">
         <v>910</v>
       </c>
+      <c r="G190" s="0" t="s">
+        <v>911</v>
+      </c>
       <c r="H190" s="0" t="s">
-        <v>911</v>
-      </c>
-      <c r="I190" s="0" t="s">
         <v>912</v>
+      </c>
+      <c r="R190" s="0" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11066,22 +11065,22 @@
         <v>914</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>518</v>
+        <v>224</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>225</v>
+        <v>915</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="I191" s="0" t="s">
         <v>917</v>
       </c>
-      <c r="K191" s="0" t="s">
+      <c r="J191" s="0" t="s">
         <v>918</v>
+      </c>
+      <c r="R191" s="0" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11096,13 +11095,13 @@
         <v>920</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="F192" s="0" t="s">
         <v>921</v>
       </c>
-      <c r="H192" s="0" t="s">
+      <c r="G192" s="0" t="s">
         <v>922</v>
+      </c>
+      <c r="R192" s="0" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11117,19 +11116,19 @@
         <v>924</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="F193" s="0" t="s">
         <v>925</v>
       </c>
+      <c r="G193" s="0" t="s">
+        <v>926</v>
+      </c>
       <c r="H193" s="0" t="s">
-        <v>926</v>
-      </c>
-      <c r="I193" s="0" t="s">
         <v>927</v>
       </c>
-      <c r="N193" s="0" t="s">
+      <c r="M193" s="0" t="s">
         <v>928</v>
+      </c>
+      <c r="R193" s="0" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11144,16 +11143,16 @@
         <v>930</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="F194" s="0" t="s">
         <v>931</v>
       </c>
-      <c r="H194" s="0" t="s">
+      <c r="G194" s="0" t="s">
         <v>932</v>
       </c>
-      <c r="N194" s="0" t="s">
+      <c r="M194" s="0" t="s">
         <v>933</v>
+      </c>
+      <c r="R194" s="0" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11168,13 +11167,13 @@
         <v>935</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="F195" s="0" t="s">
         <v>936</v>
       </c>
-      <c r="H195" s="0" t="s">
+      <c r="G195" s="0" t="s">
         <v>937</v>
+      </c>
+      <c r="R195" s="0" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11189,13 +11188,13 @@
         <v>939</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="F196" s="0" t="s">
         <v>940</v>
       </c>
-      <c r="H196" s="0" t="s">
+      <c r="G196" s="0" t="s">
         <v>917</v>
+      </c>
+      <c r="R196" s="0" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11210,16 +11209,16 @@
         <v>942</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="F197" s="0" t="s">
         <v>943</v>
       </c>
-      <c r="H197" s="0" t="s">
+      <c r="G197" s="0" t="s">
         <v>944</v>
       </c>
-      <c r="N197" s="0" t="s">
+      <c r="M197" s="0" t="s">
         <v>945</v>
+      </c>
+      <c r="R197" s="0" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11234,16 +11233,16 @@
         <v>947</v>
       </c>
       <c r="E198" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G198" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="J198" s="1"/>
+      <c r="M198" s="0" t="s">
         <v>948</v>
       </c>
-      <c r="F198" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H198" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="K198" s="1"/>
-      <c r="N198" s="0" t="s">
+      <c r="R198" s="0" t="s">
         <v>949</v>
       </c>
     </row>
@@ -11259,13 +11258,13 @@
         <v>951</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="F199" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="G199" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="H199" s="0" t="s">
-        <v>306</v>
+      <c r="R199" s="0" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11280,13 +11279,13 @@
         <v>953</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="F200" s="0" t="s">
         <v>954</v>
       </c>
-      <c r="H200" s="0" t="s">
+      <c r="G200" s="0" t="s">
         <v>955</v>
+      </c>
+      <c r="R200" s="0" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11301,13 +11300,13 @@
         <v>957</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="F201" s="0" t="s">
         <v>958</v>
       </c>
-      <c r="H201" s="0" t="s">
+      <c r="G201" s="0" t="s">
         <v>959</v>
+      </c>
+      <c r="R201" s="0" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11322,13 +11321,13 @@
         <v>961</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="F202" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="H202" s="0" t="s">
+      <c r="G202" s="0" t="s">
         <v>962</v>
+      </c>
+      <c r="R202" s="0" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11343,13 +11342,13 @@
         <v>963</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="F203" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H203" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="G203" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="R203" s="0" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11364,13 +11363,13 @@
         <v>965</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="F204" s="0" t="s">
         <v>966</v>
       </c>
-      <c r="H204" s="0" t="s">
+      <c r="G204" s="0" t="s">
         <v>967</v>
+      </c>
+      <c r="R204" s="0" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11385,13 +11384,13 @@
         <v>969</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="F205" s="0" t="s">
         <v>970</v>
       </c>
-      <c r="H205" s="0" t="s">
+      <c r="G205" s="0" t="s">
         <v>971</v>
+      </c>
+      <c r="R205" s="0" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11406,13 +11405,13 @@
         <v>973</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="F206" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="H206" s="0" t="s">
+      <c r="G206" s="0" t="s">
         <v>974</v>
+      </c>
+      <c r="R206" s="0" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11427,13 +11426,13 @@
         <v>976</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="F207" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="H207" s="0" t="s">
+      <c r="G207" s="0" t="s">
         <v>767</v>
+      </c>
+      <c r="R207" s="0" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11448,13 +11447,13 @@
         <v>978</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="F208" s="0" t="s">
         <v>979</v>
       </c>
-      <c r="H208" s="0" t="s">
-        <v>162</v>
+      <c r="G208" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="R208" s="0" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11469,13 +11468,13 @@
         <v>957</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="F209" s="0" t="s">
         <v>981</v>
       </c>
-      <c r="H209" s="0" t="s">
+      <c r="G209" s="0" t="s">
         <v>982</v>
+      </c>
+      <c r="R209" s="0" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11490,13 +11489,13 @@
         <v>984</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F210" s="0" t="s">
         <v>985</v>
       </c>
-      <c r="H210" s="0" t="s">
+      <c r="G210" s="0" t="s">
         <v>986</v>
+      </c>
+      <c r="R210" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11511,16 +11510,16 @@
         <v>988</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F211" s="0" t="s">
         <v>989</v>
       </c>
-      <c r="H211" s="0" t="s">
+      <c r="G211" s="0" t="s">
         <v>990</v>
       </c>
-      <c r="N211" s="0" t="s">
+      <c r="M211" s="0" t="s">
         <v>991</v>
+      </c>
+      <c r="R211" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11535,16 +11534,16 @@
         <v>992</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F212" s="0" t="s">
         <v>784</v>
       </c>
-      <c r="H212" s="0" t="s">
+      <c r="G212" s="0" t="s">
         <v>785</v>
       </c>
-      <c r="N212" s="0" t="s">
+      <c r="M212" s="0" t="s">
         <v>993</v>
+      </c>
+      <c r="R212" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11559,13 +11558,13 @@
         <v>995</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F213" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="H213" s="0" t="s">
+      <c r="G213" s="0" t="s">
         <v>996</v>
+      </c>
+      <c r="R213" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11580,16 +11579,16 @@
         <v>998</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F214" s="0" t="s">
         <v>999</v>
       </c>
-      <c r="H214" s="0" t="s">
+      <c r="G214" s="0" t="s">
         <v>1000</v>
       </c>
-      <c r="K214" s="0" t="s">
+      <c r="J214" s="0" t="s">
         <v>1001</v>
+      </c>
+      <c r="R214" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11604,16 +11603,16 @@
         <v>1002</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F215" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="H215" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="G215" s="0" t="s">
         <v>1003</v>
       </c>
-      <c r="N215" s="0" t="s">
+      <c r="M215" s="0" t="s">
         <v>1004</v>
+      </c>
+      <c r="R215" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11628,16 +11627,16 @@
         <v>1006</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F216" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="H216" s="0" t="s">
+      <c r="G216" s="0" t="s">
         <v>1007</v>
       </c>
-      <c r="K216" s="0" t="s">
+      <c r="J216" s="0" t="s">
         <v>1008</v>
+      </c>
+      <c r="R216" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11652,13 +11651,13 @@
         <v>1010</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F217" s="0" t="s">
         <v>1011</v>
       </c>
-      <c r="H217" s="0" t="s">
+      <c r="G217" s="0" t="s">
         <v>1012</v>
+      </c>
+      <c r="R217" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11673,13 +11672,13 @@
         <v>1014</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F218" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="H218" s="0" t="s">
+      <c r="G218" s="0" t="s">
         <v>754</v>
+      </c>
+      <c r="R218" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11694,16 +11693,16 @@
         <v>1016</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F219" s="0" t="s">
         <v>1017</v>
       </c>
-      <c r="H219" s="0" t="s">
+      <c r="G219" s="0" t="s">
         <v>1018</v>
       </c>
-      <c r="N219" s="0" t="s">
+      <c r="M219" s="0" t="s">
         <v>1019</v>
+      </c>
+      <c r="R219" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11718,19 +11717,19 @@
         <v>1021</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F220" s="0" t="s">
         <v>1022</v>
       </c>
+      <c r="G220" s="0" t="s">
+        <v>1023</v>
+      </c>
       <c r="H220" s="0" t="s">
-        <v>1023</v>
-      </c>
-      <c r="I220" s="0" t="s">
         <v>1024</v>
       </c>
-      <c r="N220" s="0" t="s">
+      <c r="M220" s="0" t="s">
         <v>1025</v>
+      </c>
+      <c r="R220" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11745,19 +11744,19 @@
         <v>1027</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F221" s="0" t="s">
         <v>1028</v>
       </c>
+      <c r="G221" s="0" t="s">
+        <v>1029</v>
+      </c>
       <c r="H221" s="0" t="s">
-        <v>1029</v>
-      </c>
-      <c r="I221" s="0" t="s">
         <v>1024</v>
       </c>
-      <c r="N221" s="0" t="s">
+      <c r="M221" s="0" t="s">
         <v>1025</v>
+      </c>
+      <c r="R221" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11772,19 +11771,19 @@
         <v>83</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F222" s="0" t="s">
         <v>1031</v>
       </c>
+      <c r="G222" s="0" t="s">
+        <v>1032</v>
+      </c>
       <c r="H222" s="0" t="s">
-        <v>1032</v>
-      </c>
-      <c r="I222" s="0" t="s">
         <v>1024</v>
       </c>
-      <c r="N222" s="0" t="s">
+      <c r="M222" s="0" t="s">
         <v>1025</v>
+      </c>
+      <c r="R222" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11799,16 +11798,16 @@
         <v>1034</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F223" s="0" t="s">
         <v>1035</v>
       </c>
-      <c r="H223" s="0" t="s">
+      <c r="G223" s="0" t="s">
         <v>1036</v>
       </c>
-      <c r="N223" s="0" t="s">
+      <c r="M223" s="0" t="s">
         <v>1037</v>
+      </c>
+      <c r="R223" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11823,16 +11822,16 @@
         <v>1039</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F224" s="0" t="s">
         <v>1040</v>
       </c>
-      <c r="H224" s="0" t="s">
+      <c r="G224" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="N224" s="0" t="s">
+      <c r="M224" s="0" t="s">
         <v>1041</v>
+      </c>
+      <c r="R224" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11847,13 +11846,13 @@
         <v>1043</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F225" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="H225" s="0" t="s">
+      <c r="G225" s="0" t="s">
         <v>1044</v>
+      </c>
+      <c r="R225" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11868,13 +11867,13 @@
         <v>1046</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F226" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="H226" s="0" t="s">
+      <c r="G226" s="0" t="s">
         <v>1007</v>
+      </c>
+      <c r="R226" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11889,13 +11888,13 @@
         <v>1048</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F227" s="0" t="s">
         <v>1011</v>
       </c>
-      <c r="H227" s="0" t="s">
+      <c r="G227" s="0" t="s">
         <v>1012</v>
+      </c>
+      <c r="R227" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11910,16 +11909,16 @@
         <v>1050</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F228" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="G228" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="H228" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="N228" s="0" t="s">
+      <c r="M228" s="0" t="s">
         <v>1051</v>
+      </c>
+      <c r="R228" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11934,16 +11933,16 @@
         <v>1053</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F229" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="H229" s="0" t="s">
+      <c r="G229" s="0" t="s">
         <v>1054</v>
       </c>
-      <c r="K229" s="0" t="s">
+      <c r="J229" s="0" t="s">
         <v>1055</v>
+      </c>
+      <c r="R229" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11958,13 +11957,13 @@
         <v>1057</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F230" s="0" t="s">
         <v>1058</v>
       </c>
-      <c r="H230" s="0" t="s">
+      <c r="G230" s="0" t="s">
         <v>1059</v>
+      </c>
+      <c r="R230" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11979,16 +11978,16 @@
         <v>1061</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F231" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="H231" s="0" t="s">
+      <c r="G231" s="0" t="s">
         <v>1062</v>
       </c>
-      <c r="K231" s="0" t="s">
+      <c r="J231" s="0" t="s">
         <v>1063</v>
+      </c>
+      <c r="R231" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12003,13 +12002,13 @@
         <v>1065</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F232" s="0" t="s">
         <v>1031</v>
       </c>
-      <c r="H232" s="0" t="s">
+      <c r="G232" s="0" t="s">
         <v>1066</v>
+      </c>
+      <c r="R232" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12024,13 +12023,13 @@
         <v>1068</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F233" s="0" t="s">
         <v>1069</v>
       </c>
-      <c r="H233" s="0" t="s">
+      <c r="G233" s="0" t="s">
         <v>1070</v>
+      </c>
+      <c r="R233" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12045,13 +12044,13 @@
         <v>1072</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F234" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="H234" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="G234" s="0" t="s">
         <v>1073</v>
+      </c>
+      <c r="R234" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12066,13 +12065,13 @@
         <v>1075</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F235" s="0" t="s">
         <v>1017</v>
       </c>
-      <c r="H235" s="0" t="s">
+      <c r="G235" s="0" t="s">
         <v>1018</v>
+      </c>
+      <c r="R235" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12087,13 +12086,13 @@
         <v>1077</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F236" s="0" t="s">
         <v>1078</v>
       </c>
-      <c r="H236" s="0" t="s">
+      <c r="G236" s="0" t="s">
         <v>1079</v>
+      </c>
+      <c r="R236" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12108,13 +12107,13 @@
         <v>1081</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F237" s="0" t="s">
         <v>1082</v>
       </c>
-      <c r="H237" s="0" t="s">
+      <c r="G237" s="0" t="s">
         <v>1083</v>
+      </c>
+      <c r="R237" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12129,13 +12128,13 @@
         <v>1085</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F238" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="H238" s="0" t="s">
+      <c r="G238" s="0" t="s">
         <v>1086</v>
+      </c>
+      <c r="R238" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12150,13 +12149,13 @@
         <v>1088</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F239" s="0" t="s">
         <v>1089</v>
       </c>
-      <c r="H239" s="0" t="s">
+      <c r="G239" s="0" t="s">
         <v>1090</v>
+      </c>
+      <c r="R239" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12171,13 +12170,13 @@
         <v>1092</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F240" s="0" t="s">
         <v>1093</v>
       </c>
-      <c r="H240" s="0" t="s">
+      <c r="G240" s="0" t="s">
         <v>1094</v>
+      </c>
+      <c r="R240" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12192,16 +12191,16 @@
         <v>1096</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F241" s="0" t="s">
         <v>1078</v>
       </c>
-      <c r="H241" s="0" t="s">
+      <c r="G241" s="0" t="s">
         <v>1079</v>
       </c>
-      <c r="N241" s="0" t="s">
+      <c r="M241" s="0" t="s">
         <v>1097</v>
+      </c>
+      <c r="R241" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12216,16 +12215,16 @@
         <v>1099</v>
       </c>
       <c r="E242" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="G242" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="M242" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="R242" s="0" t="s">
         <v>1100</v>
-      </c>
-      <c r="F242" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="H242" s="0" t="s">
-        <v>701</v>
-      </c>
-      <c r="N242" s="0" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12240,13 +12239,13 @@
         <v>1102</v>
       </c>
       <c r="E243" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J243" s="0" t="s">
+        <v>1104</v>
+      </c>
+      <c r="R243" s="0" t="s">
         <v>1100</v>
-      </c>
-      <c r="F243" s="0" t="s">
-        <v>1103</v>
-      </c>
-      <c r="K243" s="0" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12261,13 +12260,13 @@
         <v>1106</v>
       </c>
       <c r="E244" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G244" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="R244" s="0" t="s">
         <v>1100</v>
-      </c>
-      <c r="F244" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="H244" s="0" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12282,13 +12281,13 @@
         <v>1108</v>
       </c>
       <c r="E245" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G245" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="R245" s="0" t="s">
         <v>1100</v>
-      </c>
-      <c r="F245" s="0" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H245" s="0" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12303,13 +12302,13 @@
         <v>1112</v>
       </c>
       <c r="E246" s="0" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G246" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="R246" s="0" t="s">
         <v>1100</v>
-      </c>
-      <c r="F246" s="0" t="s">
-        <v>1113</v>
-      </c>
-      <c r="H246" s="0" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12324,13 +12323,13 @@
         <v>1116</v>
       </c>
       <c r="E247" s="0" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G247" s="0" t="s">
+        <v>1118</v>
+      </c>
+      <c r="R247" s="0" t="s">
         <v>1100</v>
-      </c>
-      <c r="F247" s="0" t="s">
-        <v>1117</v>
-      </c>
-      <c r="H247" s="0" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12345,13 +12344,13 @@
         <v>1120</v>
       </c>
       <c r="E248" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="G248" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="R248" s="0" t="s">
         <v>1100</v>
-      </c>
-      <c r="F248" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="H248" s="0" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12366,13 +12365,13 @@
         <v>1122</v>
       </c>
       <c r="E249" s="0" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G249" s="0" t="s">
+        <v>1124</v>
+      </c>
+      <c r="R249" s="0" t="s">
         <v>1100</v>
-      </c>
-      <c r="F249" s="0" t="s">
-        <v>1123</v>
-      </c>
-      <c r="H249" s="0" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12387,16 +12386,16 @@
         <v>1126</v>
       </c>
       <c r="E250" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G250" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="M250" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="R250" s="0" t="s">
         <v>1100</v>
-      </c>
-      <c r="F250" s="0" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H250" s="0" t="s">
-        <v>1110</v>
-      </c>
-      <c r="N250" s="0" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12411,16 +12410,16 @@
         <v>1129</v>
       </c>
       <c r="E251" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="G251" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="M251" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="R251" s="0" t="s">
         <v>1100</v>
-      </c>
-      <c r="F251" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="H251" s="0" t="s">
-        <v>1130</v>
-      </c>
-      <c r="N251" s="0" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12437,7 +12436,7 @@
       <c r="E252" s="0" t="s">
         <v>1133</v>
       </c>
-      <c r="F252" s="0" t="s">
+      <c r="R252" s="0" t="s">
         <v>1134</v>
       </c>
     </row>
@@ -12453,16 +12452,16 @@
         <v>1136</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F253" s="0" t="s">
         <v>1137</v>
       </c>
-      <c r="H253" s="0" t="s">
+      <c r="G253" s="0" t="s">
         <v>1138</v>
       </c>
-      <c r="K253" s="0" t="s">
+      <c r="J253" s="0" t="s">
         <v>1139</v>
+      </c>
+      <c r="R253" s="0" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12477,16 +12476,16 @@
         <v>1141</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F254" s="0" t="s">
         <v>1142</v>
       </c>
-      <c r="H254" s="0" t="s">
+      <c r="G254" s="0" t="s">
         <v>1143</v>
       </c>
-      <c r="N254" s="0" t="s">
+      <c r="M254" s="0" t="s">
         <v>1144</v>
+      </c>
+      <c r="R254" s="0" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12501,16 +12500,16 @@
         <v>1146</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F255" s="0" t="s">
         <v>1147</v>
       </c>
-      <c r="H255" s="0" t="s">
+      <c r="G255" s="0" t="s">
         <v>1148</v>
       </c>
-      <c r="N255" s="0" t="s">
+      <c r="M255" s="0" t="s">
         <v>1149</v>
+      </c>
+      <c r="R255" s="0" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12525,16 +12524,16 @@
         <v>1151</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F256" s="0" t="s">
         <v>1152</v>
       </c>
-      <c r="H256" s="0" t="s">
+      <c r="G256" s="0" t="s">
         <v>1153</v>
       </c>
-      <c r="N256" s="0" t="s">
+      <c r="M256" s="0" t="s">
         <v>1154</v>
+      </c>
+      <c r="R256" s="0" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12549,13 +12548,13 @@
         <v>1156</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F257" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="H257" s="0" t="s">
+      <c r="G257" s="0" t="s">
         <v>1153</v>
+      </c>
+      <c r="R257" s="0" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12570,13 +12569,13 @@
         <v>1158</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F258" s="0" t="s">
         <v>925</v>
       </c>
-      <c r="H258" s="0" t="s">
+      <c r="G258" s="0" t="s">
         <v>926</v>
+      </c>
+      <c r="R258" s="0" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12591,13 +12590,13 @@
         <v>1160</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F259" s="0" t="s">
         <v>1161</v>
       </c>
-      <c r="H259" s="0" t="s">
+      <c r="G259" s="0" t="s">
         <v>1162</v>
+      </c>
+      <c r="R259" s="0" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12612,13 +12611,13 @@
         <v>1164</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F260" s="0" t="s">
         <v>1165</v>
       </c>
-      <c r="H260" s="0" t="s">
+      <c r="G260" s="0" t="s">
         <v>1166</v>
+      </c>
+      <c r="R260" s="0" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12633,16 +12632,16 @@
         <v>1168</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F261" s="0" t="s">
         <v>1169</v>
       </c>
-      <c r="H261" s="0" t="s">
+      <c r="G261" s="0" t="s">
         <v>1170</v>
       </c>
-      <c r="N261" s="0" t="s">
+      <c r="M261" s="0" t="s">
         <v>1171</v>
+      </c>
+      <c r="R261" s="0" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12657,16 +12656,16 @@
         <v>1173</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F262" s="0" t="s">
         <v>1174</v>
       </c>
-      <c r="H262" s="0" t="s">
+      <c r="G262" s="0" t="s">
         <v>1175</v>
       </c>
-      <c r="K262" s="1" t="s">
+      <c r="J262" s="1" t="s">
         <v>1176</v>
+      </c>
+      <c r="R262" s="0" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12681,16 +12680,16 @@
         <v>1178</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F263" s="0" t="s">
         <v>1179</v>
       </c>
-      <c r="H263" s="0" t="s">
+      <c r="G263" s="0" t="s">
         <v>1180</v>
       </c>
-      <c r="K263" s="0" t="s">
+      <c r="J263" s="0" t="s">
         <v>1181</v>
+      </c>
+      <c r="R263" s="0" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12705,16 +12704,16 @@
         <v>1183</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F264" s="0" t="s">
         <v>1184</v>
       </c>
-      <c r="H264" s="0" t="s">
+      <c r="G264" s="0" t="s">
         <v>1185</v>
       </c>
-      <c r="N264" s="0" t="s">
+      <c r="M264" s="0" t="s">
         <v>1186</v>
+      </c>
+      <c r="R264" s="0" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12729,16 +12728,16 @@
         <v>1188</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F265" s="0" t="s">
         <v>1189</v>
       </c>
-      <c r="H265" s="0" t="s">
+      <c r="G265" s="0" t="s">
         <v>1190</v>
       </c>
-      <c r="N265" s="0" t="s">
+      <c r="M265" s="0" t="s">
         <v>1191</v>
+      </c>
+      <c r="R265" s="0" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12753,16 +12752,16 @@
         <v>1193</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="F266" s="0" t="s">
         <v>1194</v>
       </c>
-      <c r="H266" s="0" t="s">
+      <c r="G266" s="0" t="s">
         <v>1195</v>
       </c>
-      <c r="N266" s="0" t="s">
+      <c r="M266" s="0" t="s">
         <v>1196</v>
+      </c>
+      <c r="R266" s="0" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12777,16 +12776,16 @@
         <v>1198</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F267" s="0" t="s">
         <v>1199</v>
       </c>
-      <c r="H267" s="0" t="s">
+      <c r="G267" s="0" t="s">
         <v>1200</v>
       </c>
-      <c r="N267" s="0" t="s">
+      <c r="M267" s="0" t="s">
         <v>1201</v>
+      </c>
+      <c r="R267" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12801,13 +12800,13 @@
         <v>1203</v>
       </c>
       <c r="E268" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G268" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="R268" s="0" t="s">
         <v>1204</v>
-      </c>
-      <c r="F268" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="H268" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12824,10 +12823,10 @@
       <c r="E269" s="0" t="s">
         <v>1207</v>
       </c>
-      <c r="F269" s="0" t="s">
+      <c r="G269" s="0" t="s">
         <v>1208</v>
       </c>
-      <c r="H269" s="0" t="s">
+      <c r="R269" s="0" t="s">
         <v>1209</v>
       </c>
     </row>
@@ -12842,11 +12841,11 @@
       <c r="C270" s="0" t="s">
         <v>1211</v>
       </c>
-      <c r="E270" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="H270" s="0" t="s">
+      <c r="G270" s="0" t="s">
         <v>150</v>
+      </c>
+      <c r="R270" s="0" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12863,10 +12862,10 @@
       <c r="E271" s="0" t="s">
         <v>1214</v>
       </c>
-      <c r="F271" s="0" t="s">
+      <c r="G271" s="0" t="s">
         <v>1215</v>
       </c>
-      <c r="H271" s="0" t="s">
+      <c r="R271" s="0" t="s">
         <v>1216</v>
       </c>
     </row>
@@ -12882,13 +12881,13 @@
         <v>1218</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F272" s="0" t="s">
         <v>1219</v>
       </c>
-      <c r="H272" s="0" t="s">
+      <c r="G272" s="0" t="s">
         <v>1220</v>
+      </c>
+      <c r="R272" s="0" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12903,13 +12902,13 @@
         <v>1222</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="F273" s="0" t="s">
         <v>1223</v>
       </c>
-      <c r="H273" s="0" t="s">
+      <c r="G273" s="0" t="s">
         <v>1224</v>
+      </c>
+      <c r="R273" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12924,13 +12923,13 @@
         <v>1226</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="F274" s="0" t="s">
         <v>1227</v>
       </c>
-      <c r="H274" s="0" t="s">
+      <c r="G274" s="0" t="s">
         <v>1228</v>
+      </c>
+      <c r="R274" s="0" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12945,13 +12944,13 @@
         <v>1230</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="F275" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="H275" s="0" t="s">
+      <c r="G275" s="0" t="s">
         <v>1231</v>
+      </c>
+      <c r="R275" s="0" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12966,13 +12965,13 @@
         <v>1233</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="F276" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="H276" s="0" t="s">
+      <c r="G276" s="0" t="s">
         <v>1234</v>
+      </c>
+      <c r="R276" s="0" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12986,11 +12985,11 @@
       <c r="C277" s="0" t="s">
         <v>1236</v>
       </c>
-      <c r="E277" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="N277" s="0" t="s">
+      <c r="M277" s="0" t="s">
         <v>1237</v>
+      </c>
+      <c r="R277" s="0" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13005,13 +13004,13 @@
         <v>1239</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F278" s="0" t="s">
         <v>1240</v>
       </c>
-      <c r="H278" s="0" t="s">
+      <c r="G278" s="0" t="s">
         <v>1241</v>
+      </c>
+      <c r="R278" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13026,13 +13025,13 @@
         <v>1243</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F279" s="0" t="s">
         <v>1244</v>
       </c>
-      <c r="H279" s="0" t="s">
+      <c r="G279" s="0" t="s">
         <v>1245</v>
+      </c>
+      <c r="R279" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13047,13 +13046,13 @@
         <v>1247</v>
       </c>
       <c r="E280" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F280" s="0" t="s">
         <v>1248</v>
       </c>
-      <c r="H280" s="0" t="s">
+      <c r="G280" s="0" t="s">
         <v>1249</v>
+      </c>
+      <c r="R280" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13068,13 +13067,13 @@
         <v>1251</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F281" s="0" t="s">
         <v>1199</v>
       </c>
-      <c r="H281" s="0" t="s">
+      <c r="G281" s="0" t="s">
         <v>1200</v>
+      </c>
+      <c r="R281" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13089,16 +13088,16 @@
         <v>1253</v>
       </c>
       <c r="E282" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F282" s="0" t="s">
-        <v>472</v>
+        <v>471</v>
+      </c>
+      <c r="G282" s="0" t="s">
+        <v>499</v>
       </c>
       <c r="H282" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="I282" s="0" t="s">
         <v>1254</v>
+      </c>
+      <c r="R282" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13113,16 +13112,16 @@
         <v>1256</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F283" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="H283" s="0" t="s">
+      <c r="G283" s="0" t="s">
         <v>1257</v>
       </c>
-      <c r="N283" s="0" t="s">
+      <c r="M283" s="0" t="s">
         <v>1258</v>
+      </c>
+      <c r="R283" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13137,16 +13136,16 @@
         <v>1260</v>
       </c>
       <c r="E284" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F284" s="0" t="s">
         <v>1261</v>
       </c>
-      <c r="H284" s="0" t="s">
+      <c r="G284" s="0" t="s">
         <v>1262</v>
       </c>
-      <c r="N284" s="0" t="s">
+      <c r="M284" s="0" t="s">
         <v>1263</v>
+      </c>
+      <c r="R284" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13161,13 +13160,13 @@
         <v>1265</v>
       </c>
       <c r="E285" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F285" s="0" t="s">
         <v>1266</v>
       </c>
-      <c r="H285" s="0" t="s">
+      <c r="G285" s="0" t="s">
         <v>1267</v>
+      </c>
+      <c r="R285" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13182,13 +13181,13 @@
         <v>1269</v>
       </c>
       <c r="E286" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F286" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="H286" s="0" t="s">
+      <c r="G286" s="0" t="s">
         <v>1270</v>
+      </c>
+      <c r="R286" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13203,13 +13202,13 @@
         <v>1272</v>
       </c>
       <c r="E287" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F287" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H287" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="G287" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R287" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13224,13 +13223,13 @@
         <v>1274</v>
       </c>
       <c r="E288" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F288" s="0" t="s">
         <v>1275</v>
       </c>
-      <c r="H288" s="0" t="s">
+      <c r="G288" s="0" t="s">
         <v>1276</v>
+      </c>
+      <c r="R288" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13245,13 +13244,13 @@
         <v>1278</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F289" s="0" t="s">
         <v>1279</v>
       </c>
-      <c r="H289" s="0" t="s">
+      <c r="G289" s="0" t="s">
         <v>1280</v>
+      </c>
+      <c r="R289" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13266,13 +13265,13 @@
         <v>1282</v>
       </c>
       <c r="E290" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F290" s="0" t="s">
         <v>1058</v>
       </c>
-      <c r="H290" s="0" t="s">
+      <c r="G290" s="0" t="s">
         <v>1283</v>
+      </c>
+      <c r="R290" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13287,13 +13286,13 @@
         <v>1285</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F291" s="0" t="s">
         <v>1286</v>
       </c>
-      <c r="H291" s="0" t="s">
+      <c r="G291" s="0" t="s">
         <v>1287</v>
+      </c>
+      <c r="R291" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13308,22 +13307,22 @@
         <v>1289</v>
       </c>
       <c r="E292" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F292" s="0" t="s">
         <v>1290</v>
       </c>
+      <c r="G292" s="0" t="s">
+        <v>1291</v>
+      </c>
       <c r="H292" s="0" t="s">
-        <v>1291</v>
-      </c>
-      <c r="I292" s="0" t="s">
         <v>1292</v>
       </c>
-      <c r="K292" s="0" t="s">
+      <c r="J292" s="0" t="s">
         <v>1293</v>
       </c>
-      <c r="N292" s="0" t="s">
+      <c r="M292" s="0" t="s">
         <v>1294</v>
+      </c>
+      <c r="R292" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13338,19 +13337,19 @@
         <v>1296</v>
       </c>
       <c r="E293" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F293" s="0" t="s">
         <v>784</v>
       </c>
+      <c r="G293" s="0" t="s">
+        <v>1297</v>
+      </c>
       <c r="H293" s="0" t="s">
-        <v>1297</v>
-      </c>
-      <c r="I293" s="0" t="s">
         <v>785</v>
       </c>
-      <c r="N293" s="0" t="s">
+      <c r="M293" s="0" t="s">
         <v>1298</v>
+      </c>
+      <c r="R293" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13365,19 +13364,19 @@
         <v>1299</v>
       </c>
       <c r="E294" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F294" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="G294" s="0" t="s">
+        <v>1300</v>
       </c>
       <c r="H294" s="0" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I294" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="N294" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M294" s="0" t="s">
         <v>1301</v>
+      </c>
+      <c r="R294" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13391,11 +13390,11 @@
       <c r="C295" s="0" t="s">
         <v>1303</v>
       </c>
-      <c r="E295" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="H295" s="0" t="s">
+      <c r="G295" s="0" t="s">
         <v>1304</v>
+      </c>
+      <c r="R295" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13409,11 +13408,11 @@
       <c r="C296" s="0" t="s">
         <v>1303</v>
       </c>
-      <c r="E296" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="H296" s="0" t="s">
+      <c r="G296" s="0" t="s">
         <v>1306</v>
+      </c>
+      <c r="R296" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13428,16 +13427,16 @@
         <v>1308</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F297" s="0" t="s">
         <v>1309</v>
       </c>
-      <c r="H297" s="0" t="s">
+      <c r="G297" s="0" t="s">
         <v>1310</v>
       </c>
-      <c r="K297" s="0" t="s">
+      <c r="J297" s="0" t="s">
         <v>1311</v>
+      </c>
+      <c r="R297" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13452,16 +13451,16 @@
         <v>1313</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F298" s="0" t="s">
         <v>1279</v>
       </c>
-      <c r="H298" s="0" t="s">
+      <c r="G298" s="0" t="s">
         <v>1314</v>
       </c>
-      <c r="K298" s="0" t="s">
+      <c r="J298" s="0" t="s">
         <v>1315</v>
+      </c>
+      <c r="R298" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13476,13 +13475,13 @@
         <v>1317</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F299" s="0" t="s">
         <v>1318</v>
       </c>
-      <c r="H299" s="0" t="s">
+      <c r="G299" s="0" t="s">
         <v>1319</v>
+      </c>
+      <c r="R299" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13497,13 +13496,13 @@
         <v>1321</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F300" s="0" t="s">
         <v>985</v>
       </c>
-      <c r="H300" s="0" t="s">
+      <c r="G300" s="0" t="s">
         <v>1322</v>
+      </c>
+      <c r="R300" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13518,13 +13517,13 @@
         <v>1324</v>
       </c>
       <c r="E301" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F301" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="H301" s="0" t="s">
+      <c r="G301" s="0" t="s">
         <v>1325</v>
+      </c>
+      <c r="R301" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13539,16 +13538,16 @@
         <v>1326</v>
       </c>
       <c r="E302" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="F302" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H302" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N302" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G302" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="M302" s="0" t="s">
         <v>1327</v>
+      </c>
+      <c r="R302" s="0" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13562,14 +13561,14 @@
       <c r="C303" s="0" t="s">
         <v>1326</v>
       </c>
-      <c r="E303" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="H303" s="0" t="s">
+      <c r="G303" s="0" t="s">
         <v>1329</v>
       </c>
-      <c r="N303" s="0" t="s">
+      <c r="M303" s="0" t="s">
         <v>1327</v>
+      </c>
+      <c r="R303" s="0" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13583,11 +13582,11 @@
       <c r="C304" s="0" t="s">
         <v>1326</v>
       </c>
-      <c r="E304" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="H304" s="0" t="s">
+      <c r="G304" s="0" t="s">
         <v>1331</v>
+      </c>
+      <c r="R304" s="0" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13601,23 +13600,23 @@
       <c r="C305" s="0" t="s">
         <v>1333</v>
       </c>
-      <c r="E305" s="0" t="s">
-        <v>359</v>
+      <c r="G305" s="0" t="s">
+        <v>1334</v>
       </c>
       <c r="H305" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="I305" s="0" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="J305" s="0" t="s">
-        <v>1336</v>
-      </c>
-      <c r="K305" s="0" t="s">
         <v>1337</v>
       </c>
-      <c r="N305" s="0" t="s">
+      <c r="M305" s="0" t="s">
         <v>1338</v>
+      </c>
+      <c r="R305" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13632,19 +13631,19 @@
         <v>1289</v>
       </c>
       <c r="E306" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F306" s="0" t="s">
         <v>1340</v>
       </c>
+      <c r="G306" s="0" t="s">
+        <v>1341</v>
+      </c>
       <c r="H306" s="0" t="s">
-        <v>1341</v>
-      </c>
-      <c r="I306" s="0" t="s">
         <v>1342</v>
       </c>
-      <c r="N306" s="0" t="s">
+      <c r="M306" s="0" t="s">
         <v>1343</v>
+      </c>
+      <c r="R306" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13659,13 +13658,13 @@
         <v>1333</v>
       </c>
       <c r="E307" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F307" s="0" t="s">
         <v>1345</v>
       </c>
-      <c r="H307" s="0" t="s">
+      <c r="G307" s="0" t="s">
         <v>1346</v>
+      </c>
+      <c r="R307" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13680,16 +13679,16 @@
         <v>1289</v>
       </c>
       <c r="E308" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F308" s="0" t="s">
         <v>1348</v>
       </c>
-      <c r="H308" s="0" t="s">
+      <c r="G308" s="0" t="s">
         <v>1349</v>
       </c>
-      <c r="N308" s="0" t="s">
+      <c r="M308" s="0" t="s">
         <v>1350</v>
+      </c>
+      <c r="R308" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13703,14 +13702,14 @@
       <c r="C309" s="0" t="s">
         <v>1352</v>
       </c>
-      <c r="E309" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="H309" s="0" t="s">
+      <c r="G309" s="0" t="s">
         <v>1353</v>
       </c>
-      <c r="N309" s="0" t="s">
+      <c r="M309" s="0" t="s">
         <v>1354</v>
+      </c>
+      <c r="R309" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13725,16 +13724,16 @@
         <v>1355</v>
       </c>
       <c r="E310" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F310" s="0" t="s">
         <v>1286</v>
       </c>
-      <c r="H310" s="0" t="s">
+      <c r="G310" s="0" t="s">
         <v>1356</v>
       </c>
-      <c r="K310" s="0" t="s">
+      <c r="J310" s="0" t="s">
         <v>1357</v>
+      </c>
+      <c r="R310" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13749,16 +13748,16 @@
         <v>1359</v>
       </c>
       <c r="E311" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F311" s="0" t="s">
         <v>1360</v>
       </c>
-      <c r="H311" s="0" t="s">
+      <c r="G311" s="0" t="s">
         <v>1361</v>
       </c>
-      <c r="N311" s="0" t="s">
+      <c r="M311" s="0" t="s">
         <v>1362</v>
+      </c>
+      <c r="R311" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13772,14 +13771,14 @@
       <c r="C312" s="0" t="s">
         <v>1364</v>
       </c>
-      <c r="E312" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="H312" s="0" t="s">
+      <c r="G312" s="0" t="s">
         <v>1365</v>
       </c>
-      <c r="N312" s="0" t="s">
+      <c r="M312" s="0" t="s">
         <v>1366</v>
+      </c>
+      <c r="R312" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13794,13 +13793,13 @@
         <v>1359</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F313" s="0" t="s">
         <v>1368</v>
       </c>
-      <c r="H313" s="0" t="s">
+      <c r="G313" s="0" t="s">
         <v>1369</v>
+      </c>
+      <c r="R313" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13815,16 +13814,16 @@
         <v>1371</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F314" s="0" t="s">
         <v>1372</v>
       </c>
-      <c r="H314" s="0" t="s">
+      <c r="G314" s="0" t="s">
         <v>1373</v>
       </c>
-      <c r="N314" s="0" t="s">
+      <c r="M314" s="0" t="s">
         <v>1374</v>
+      </c>
+      <c r="R314" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13838,11 +13837,11 @@
       <c r="C315" s="0" t="s">
         <v>1289</v>
       </c>
-      <c r="E315" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="H315" s="0" t="s">
+      <c r="G315" s="0" t="s">
         <v>1376</v>
+      </c>
+      <c r="R315" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13857,16 +13856,16 @@
         <v>1378</v>
       </c>
       <c r="E316" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F316" s="0" t="s">
         <v>1379</v>
       </c>
-      <c r="H316" s="0" t="s">
+      <c r="G316" s="0" t="s">
         <v>1380</v>
       </c>
-      <c r="N316" s="0" t="s">
+      <c r="M316" s="0" t="s">
         <v>1381</v>
+      </c>
+      <c r="R316" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13881,10 +13880,10 @@
         <v>1383</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F317" s="0" t="s">
         <v>1384</v>
+      </c>
+      <c r="R317" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13899,13 +13898,13 @@
         <v>1386</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F318" s="0" t="s">
         <v>1372</v>
       </c>
-      <c r="H318" s="0" t="s">
+      <c r="G318" s="0" t="s">
         <v>1387</v>
+      </c>
+      <c r="R318" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13920,13 +13919,13 @@
         <v>1389</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F319" s="0" t="s">
         <v>1390</v>
       </c>
-      <c r="H319" s="0" t="s">
+      <c r="G319" s="0" t="s">
         <v>378</v>
+      </c>
+      <c r="R319" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13941,13 +13940,13 @@
         <v>1392</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F320" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="H320" s="0" t="s">
+      <c r="G320" s="0" t="s">
         <v>1393</v>
+      </c>
+      <c r="R320" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13962,13 +13961,13 @@
         <v>1395</v>
       </c>
       <c r="E321" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F321" s="0" t="s">
         <v>1396</v>
       </c>
-      <c r="H321" s="0" t="s">
+      <c r="G321" s="0" t="s">
         <v>1245</v>
+      </c>
+      <c r="R321" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13983,13 +13982,13 @@
         <v>1398</v>
       </c>
       <c r="E322" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F322" s="0" t="s">
         <v>1399</v>
       </c>
-      <c r="H322" s="0" t="s">
+      <c r="G322" s="0" t="s">
         <v>653</v>
+      </c>
+      <c r="R322" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14004,16 +14003,16 @@
         <v>1401</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F323" s="0" t="s">
         <v>1402</v>
       </c>
-      <c r="H323" s="0" t="s">
+      <c r="G323" s="0" t="s">
         <v>1270</v>
       </c>
-      <c r="N323" s="0" t="s">
+      <c r="M323" s="0" t="s">
         <v>97</v>
+      </c>
+      <c r="R323" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14028,16 +14027,16 @@
         <v>1404</v>
       </c>
       <c r="E324" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F324" s="0" t="s">
         <v>1275</v>
       </c>
-      <c r="H324" s="0" t="s">
+      <c r="G324" s="0" t="s">
         <v>1276</v>
       </c>
-      <c r="K324" s="0" t="s">
+      <c r="J324" s="0" t="s">
         <v>1405</v>
+      </c>
+      <c r="R324" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14054,13 +14053,13 @@
       <c r="E325" s="0" t="s">
         <v>1408</v>
       </c>
-      <c r="F325" s="0" t="s">
+      <c r="G325" s="0" t="s">
         <v>1409</v>
       </c>
-      <c r="H325" s="0" t="s">
+      <c r="M325" s="0" t="s">
         <v>1410</v>
       </c>
-      <c r="N325" s="0" t="s">
+      <c r="R325" s="0" t="s">
         <v>1411</v>
       </c>
     </row>
@@ -14078,14 +14077,14 @@
       <c r="E326" s="0" t="s">
         <v>1408</v>
       </c>
-      <c r="F326" s="0" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H326" s="0" t="s">
+      <c r="G326" s="0" t="s">
         <v>1414</v>
       </c>
-      <c r="N326" s="0" t="s">
+      <c r="M326" s="0" t="s">
         <v>1415</v>
+      </c>
+      <c r="R326" s="0" t="s">
+        <v>1411</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14102,13 +14101,13 @@
       <c r="E327" s="0" t="s">
         <v>1418</v>
       </c>
-      <c r="F327" s="0" t="s">
+      <c r="G327" s="0" t="s">
         <v>1419</v>
       </c>
-      <c r="H327" s="0" t="s">
+      <c r="J327" s="0" t="s">
         <v>1420</v>
       </c>
-      <c r="K327" s="0" t="s">
+      <c r="R327" s="0" t="s">
         <v>1421</v>
       </c>
     </row>
@@ -14123,11 +14122,11 @@
       <c r="C328" s="0" t="s">
         <v>1423</v>
       </c>
-      <c r="E328" s="0" t="s">
-        <v>1418</v>
-      </c>
-      <c r="H328" s="0" t="s">
+      <c r="G328" s="0" t="s">
         <v>1424</v>
+      </c>
+      <c r="R328" s="0" t="s">
+        <v>1421</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14142,16 +14141,16 @@
         <v>1426</v>
       </c>
       <c r="E329" s="0" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F329" s="0" t="s">
         <v>1427</v>
       </c>
-      <c r="H329" s="0" t="s">
+      <c r="G329" s="0" t="s">
         <v>1414</v>
       </c>
-      <c r="N329" s="0" t="s">
+      <c r="M329" s="0" t="s">
         <v>1428</v>
+      </c>
+      <c r="R329" s="0" t="s">
+        <v>1421</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14166,16 +14165,16 @@
         <v>1430</v>
       </c>
       <c r="E330" s="0" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F330" s="0" t="s">
         <v>1431</v>
       </c>
-      <c r="H330" s="0" t="s">
+      <c r="G330" s="0" t="s">
         <v>1432</v>
       </c>
-      <c r="K330" s="0" t="s">
+      <c r="J330" s="0" t="s">
         <v>1433</v>
+      </c>
+      <c r="R330" s="0" t="s">
+        <v>1421</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14190,16 +14189,16 @@
         <v>1435</v>
       </c>
       <c r="E331" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="F331" s="0" t="s">
         <v>1436</v>
       </c>
-      <c r="H331" s="0" t="s">
+      <c r="G331" s="0" t="s">
         <v>1437</v>
       </c>
-      <c r="N331" s="0" t="s">
+      <c r="M331" s="0" t="s">
         <v>1438</v>
+      </c>
+      <c r="R331" s="0" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14214,13 +14213,13 @@
         <v>1439</v>
       </c>
       <c r="E332" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="F332" s="0" t="s">
         <v>1011</v>
       </c>
-      <c r="H332" s="0" t="s">
+      <c r="G332" s="0" t="s">
         <v>1012</v>
+      </c>
+      <c r="R332" s="0" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14235,13 +14234,13 @@
         <v>1441</v>
       </c>
       <c r="E333" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="F333" s="0" t="s">
         <v>1442</v>
       </c>
-      <c r="H333" s="0" t="s">
+      <c r="G333" s="0" t="s">
         <v>1443</v>
+      </c>
+      <c r="R333" s="0" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14256,13 +14255,13 @@
         <v>1445</v>
       </c>
       <c r="E334" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="F334" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G334" s="0" t="s">
         <v>1215</v>
       </c>
-      <c r="H334" s="0" t="s">
-        <v>1216</v>
+      <c r="R334" s="0" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14277,16 +14276,16 @@
         <v>1447</v>
       </c>
       <c r="E335" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="F335" s="0" t="s">
         <v>1448</v>
       </c>
-      <c r="H335" s="0" t="s">
+      <c r="G335" s="0" t="s">
         <v>1449</v>
       </c>
-      <c r="K335" s="0" t="s">
+      <c r="J335" s="0" t="s">
         <v>1450</v>
+      </c>
+      <c r="R335" s="0" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14301,12 +14300,12 @@
         <v>1452</v>
       </c>
       <c r="E336" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="G336" s="0" t="s">
         <v>1453</v>
       </c>
-      <c r="F336" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="H336" s="0" t="s">
+      <c r="R336" s="0" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -14322,16 +14321,16 @@
         <v>1455</v>
       </c>
       <c r="E337" s="0" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F337" s="0" t="s">
         <v>1456</v>
       </c>
-      <c r="H337" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="N337" s="0" t="s">
+      <c r="G337" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="M337" s="0" t="s">
         <v>1457</v>
+      </c>
+      <c r="R337" s="0" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14346,13 +14345,13 @@
         <v>1459</v>
       </c>
       <c r="E338" s="0" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F338" s="0" t="s">
         <v>1460</v>
       </c>
-      <c r="H338" s="0" t="s">
+      <c r="G338" s="0" t="s">
         <v>1461</v>
+      </c>
+      <c r="R338" s="0" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14366,14 +14365,14 @@
       <c r="C339" s="0" t="s">
         <v>1463</v>
       </c>
-      <c r="E339" s="0" t="s">
-        <v>1214</v>
-      </c>
-      <c r="H339" s="0" t="s">
+      <c r="G339" s="0" t="s">
         <v>1464</v>
       </c>
-      <c r="N339" s="0" t="s">
+      <c r="M339" s="0" t="s">
         <v>1465</v>
+      </c>
+      <c r="R339" s="0" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14388,13 +14387,13 @@
         <v>1467</v>
       </c>
       <c r="E340" s="0" t="s">
-        <v>621</v>
-      </c>
-      <c r="F340" s="0" t="s">
         <v>1468</v>
       </c>
-      <c r="H340" s="0" t="s">
+      <c r="G340" s="0" t="s">
         <v>1469</v>
+      </c>
+      <c r="R340" s="0" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14411,10 +14410,10 @@
       <c r="E341" s="0" t="s">
         <v>1472</v>
       </c>
-      <c r="F341" s="0" t="s">
+      <c r="M341" s="0" t="s">
         <v>1473</v>
       </c>
-      <c r="N341" s="0" t="s">
+      <c r="R341" s="0" t="s">
         <v>1474</v>
       </c>
     </row>
@@ -14430,10 +14429,10 @@
         <v>1476</v>
       </c>
       <c r="E342" s="0" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F342" s="0" t="s">
         <v>1477</v>
+      </c>
+      <c r="R342" s="0" t="s">
+        <v>1474</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14448,13 +14447,13 @@
         <v>1479</v>
       </c>
       <c r="E343" s="0" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F343" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="H343" s="0" t="s">
+      <c r="G343" s="0" t="s">
         <v>862</v>
+      </c>
+      <c r="R343" s="0" t="s">
+        <v>1474</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14469,13 +14468,13 @@
         <v>1481</v>
       </c>
       <c r="E344" s="0" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F344" s="0" t="s">
         <v>1482</v>
       </c>
-      <c r="H344" s="0" t="s">
+      <c r="G344" s="0" t="s">
         <v>1483</v>
+      </c>
+      <c r="R344" s="0" t="s">
+        <v>1474</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14490,16 +14489,16 @@
         <v>1485</v>
       </c>
       <c r="E345" s="0" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F345" s="0" t="s">
         <v>1486</v>
       </c>
-      <c r="H345" s="0" t="s">
+      <c r="G345" s="0" t="s">
         <v>1487</v>
       </c>
-      <c r="K345" s="0" t="s">
+      <c r="J345" s="0" t="s">
         <v>1488</v>
+      </c>
+      <c r="R345" s="0" t="s">
+        <v>1474</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14514,13 +14513,13 @@
         <v>1490</v>
       </c>
       <c r="E346" s="0" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F346" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="H346" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G346" s="0" t="s">
         <v>1491</v>
+      </c>
+      <c r="R346" s="0" t="s">
+        <v>1474</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14535,13 +14534,13 @@
         <v>1493</v>
       </c>
       <c r="E347" s="0" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F347" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H347" s="0" t="s">
+      <c r="G347" s="0" t="s">
         <v>52</v>
+      </c>
+      <c r="R347" s="0" t="s">
+        <v>1474</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14556,16 +14555,16 @@
         <v>1495</v>
       </c>
       <c r="E348" s="0" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F348" s="0" t="s">
         <v>1496</v>
       </c>
-      <c r="H348" s="0" t="s">
+      <c r="G348" s="0" t="s">
         <v>1497</v>
       </c>
-      <c r="N348" s="0" t="s">
+      <c r="M348" s="0" t="s">
         <v>1498</v>
+      </c>
+      <c r="R348" s="0" t="s">
+        <v>1474</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14580,16 +14579,16 @@
         <v>1500</v>
       </c>
       <c r="E349" s="0" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F349" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="H349" s="0" t="s">
+      <c r="G349" s="0" t="s">
         <v>1501</v>
       </c>
-      <c r="K349" s="0" t="s">
+      <c r="J349" s="0" t="s">
         <v>1502</v>
+      </c>
+      <c r="R349" s="0" t="s">
+        <v>1474</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14604,16 +14603,16 @@
         <v>1504</v>
       </c>
       <c r="E350" s="0" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F350" s="0" t="s">
         <v>1505</v>
       </c>
-      <c r="H350" s="0" t="s">
+      <c r="G350" s="0" t="s">
         <v>1506</v>
       </c>
-      <c r="N350" s="0" t="s">
+      <c r="M350" s="0" t="s">
         <v>1507</v>
+      </c>
+      <c r="R350" s="0" t="s">
+        <v>1474</v>
       </c>
     </row>
   </sheetData>
@@ -14989,7 +14988,7 @@
         <v>1567</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15194,7 +15193,7 @@
         <v>1594</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>1595</v>
@@ -15246,7 +15245,7 @@
         <v>1602</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>1603</v>
@@ -15298,7 +15297,7 @@
         <v>1609</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H28" s="0"/>
     </row>
@@ -15610,7 +15609,7 @@
         <v>1638</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>781</v>
@@ -15651,7 +15650,7 @@
         <v>1567</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16330,7 +16329,7 @@
         <v>1749</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H71" s="0"/>
     </row>
@@ -16530,7 +16529,7 @@
         <v>1775</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>1651</v>
@@ -16960,7 +16959,7 @@
         <v>1824</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>1024</v>
@@ -17098,7 +17097,7 @@
         <v>1841</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>1842</v>
@@ -17326,7 +17325,7 @@
         <v>1873</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H112" s="0"/>
     </row>
@@ -17376,7 +17375,7 @@
         <v>1749</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H114" s="0"/>
     </row>
@@ -17908,7 +17907,7 @@
         <v>1957</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>1958</v>
@@ -18058,7 +18057,7 @@
         <v>1978</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H143" s="0"/>
     </row>
